--- a/Bases_de_Dados_(2022-2023)/Hungary NB I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Hungary NB I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="855" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="241">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -735,6 +735,9 @@
   <si>
     <t>['37', '79']</t>
   </si>
+  <si>
+    <t>['48']</t>
+  </si>
 </sst>
 </file>
 
@@ -1095,7 +1098,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK133"/>
+  <dimension ref="A1:BK134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1999,10 +2002,10 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT5">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU5">
         <v>0</v>
@@ -2954,7 +2957,7 @@
         <v>1</v>
       </c>
       <c r="AS10">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT10">
         <v>0.64</v>
@@ -4100,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT16">
         <v>1.09</v>
@@ -5249,7 +5252,7 @@
         <v>1.91</v>
       </c>
       <c r="AT22">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU22">
         <v>0</v>
@@ -6201,7 +6204,7 @@
         <v>0</v>
       </c>
       <c r="AS27">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT27">
         <v>0.36</v>
@@ -6777,7 +6780,7 @@
         <v>1.36</v>
       </c>
       <c r="AT30">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU30">
         <v>1.71</v>
@@ -8493,7 +8496,7 @@
         <v>1</v>
       </c>
       <c r="AS39">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT39">
         <v>1</v>
@@ -8878,7 +8881,7 @@
         <v>1.45</v>
       </c>
       <c r="AT41">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU41">
         <v>0</v>
@@ -11549,7 +11552,7 @@
         <v>0.75</v>
       </c>
       <c r="AS55">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT55">
         <v>0.82</v>
@@ -12125,7 +12128,7 @@
         <v>2.45</v>
       </c>
       <c r="AT58">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU58">
         <v>1.47</v>
@@ -15181,7 +15184,7 @@
         <v>1.91</v>
       </c>
       <c r="AT74">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU74">
         <v>1.11</v>
@@ -16518,7 +16521,7 @@
         <v>0.91</v>
       </c>
       <c r="AT81">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU81">
         <v>1.15</v>
@@ -17088,7 +17091,7 @@
         <v>1.29</v>
       </c>
       <c r="AS84">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT84">
         <v>1.09</v>
@@ -18237,7 +18240,7 @@
         <v>1.64</v>
       </c>
       <c r="AT90">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU90">
         <v>1.68</v>
@@ -19571,7 +19574,7 @@
         <v>1.13</v>
       </c>
       <c r="AS97">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT97">
         <v>1.18</v>
@@ -21484,7 +21487,7 @@
         <v>1.82</v>
       </c>
       <c r="AT107">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU107">
         <v>1.36</v>
@@ -22436,7 +22439,7 @@
         <v>2.11</v>
       </c>
       <c r="AS112">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT112">
         <v>2.09</v>
@@ -23200,7 +23203,7 @@
         <v>0.78</v>
       </c>
       <c r="AS116">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT116">
         <v>0.73</v>
@@ -24158,7 +24161,7 @@
         <v>1</v>
       </c>
       <c r="AT121">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU121">
         <v>1.19</v>
@@ -25683,7 +25686,7 @@
         <v>1.2</v>
       </c>
       <c r="AS129">
-        <v>1.45</v>
+        <v>1.33</v>
       </c>
       <c r="AT129">
         <v>1.36</v>
@@ -26450,7 +26453,7 @@
         <v>1.45</v>
       </c>
       <c r="AT133">
-        <v>0.91</v>
+        <v>1.08</v>
       </c>
       <c r="AU133">
         <v>1.71</v>
@@ -26502,6 +26505,197 @@
       </c>
       <c r="BK133">
         <v>4</v>
+      </c>
+    </row>
+    <row r="134" spans="1:63">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>3175817</v>
+      </c>
+      <c r="C134" t="s">
+        <v>63</v>
+      </c>
+      <c r="D134" t="s">
+        <v>64</v>
+      </c>
+      <c r="E134" s="2">
+        <v>44996.4375</v>
+      </c>
+      <c r="F134">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>68</v>
+      </c>
+      <c r="H134" t="s">
+        <v>72</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>1</v>
+      </c>
+      <c r="N134">
+        <v>1</v>
+      </c>
+      <c r="O134" t="s">
+        <v>77</v>
+      </c>
+      <c r="P134" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q134">
+        <v>9</v>
+      </c>
+      <c r="R134">
+        <v>0</v>
+      </c>
+      <c r="S134">
+        <v>9</v>
+      </c>
+      <c r="T134">
+        <v>0</v>
+      </c>
+      <c r="U134">
+        <v>0</v>
+      </c>
+      <c r="V134">
+        <v>0</v>
+      </c>
+      <c r="W134">
+        <v>0</v>
+      </c>
+      <c r="X134">
+        <v>0</v>
+      </c>
+      <c r="Y134">
+        <v>0</v>
+      </c>
+      <c r="Z134">
+        <v>0</v>
+      </c>
+      <c r="AA134">
+        <v>0</v>
+      </c>
+      <c r="AB134">
+        <v>0</v>
+      </c>
+      <c r="AC134">
+        <v>1.95</v>
+      </c>
+      <c r="AD134">
+        <v>3.4</v>
+      </c>
+      <c r="AE134">
+        <v>3.65</v>
+      </c>
+      <c r="AF134">
+        <v>0</v>
+      </c>
+      <c r="AG134">
+        <v>0</v>
+      </c>
+      <c r="AH134">
+        <v>0</v>
+      </c>
+      <c r="AI134">
+        <v>0</v>
+      </c>
+      <c r="AJ134">
+        <v>1.75</v>
+      </c>
+      <c r="AK134">
+        <v>1.95</v>
+      </c>
+      <c r="AL134">
+        <v>0</v>
+      </c>
+      <c r="AM134">
+        <v>0</v>
+      </c>
+      <c r="AN134">
+        <v>0</v>
+      </c>
+      <c r="AO134">
+        <v>0</v>
+      </c>
+      <c r="AP134">
+        <v>0</v>
+      </c>
+      <c r="AQ134">
+        <v>1.45</v>
+      </c>
+      <c r="AR134">
+        <v>0.91</v>
+      </c>
+      <c r="AS134">
+        <v>1.33</v>
+      </c>
+      <c r="AT134">
+        <v>1.08</v>
+      </c>
+      <c r="AU134">
+        <v>1.23</v>
+      </c>
+      <c r="AV134">
+        <v>1.28</v>
+      </c>
+      <c r="AW134">
+        <v>2.51</v>
+      </c>
+      <c r="AX134">
+        <v>0</v>
+      </c>
+      <c r="AY134">
+        <v>0</v>
+      </c>
+      <c r="AZ134">
+        <v>0</v>
+      </c>
+      <c r="BA134">
+        <v>0</v>
+      </c>
+      <c r="BB134">
+        <v>0</v>
+      </c>
+      <c r="BC134">
+        <v>0</v>
+      </c>
+      <c r="BD134">
+        <v>0</v>
+      </c>
+      <c r="BE134">
+        <v>0</v>
+      </c>
+      <c r="BF134">
+        <v>0</v>
+      </c>
+      <c r="BG134">
+        <v>3</v>
+      </c>
+      <c r="BH134">
+        <v>8</v>
+      </c>
+      <c r="BI134">
+        <v>5</v>
+      </c>
+      <c r="BJ134">
+        <v>8</v>
+      </c>
+      <c r="BK134">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Hungary NB I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Hungary NB I_20222023.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,21 @@
     <t>['56', '67', '81']</t>
   </si>
   <si>
+    <t>['29', '56']</t>
+  </si>
+  <si>
+    <t>['39']</t>
+  </si>
+  <si>
+    <t>['58', '84']</t>
+  </si>
+  <si>
+    <t>['10']</t>
+  </si>
+  <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
     <t>['65']</t>
   </si>
   <si>
@@ -578,9 +593,6 @@
   </si>
   <si>
     <t>['70']</t>
-  </si>
-  <si>
-    <t>['90+6']</t>
   </si>
   <si>
     <t>['60', '90+2']</t>
@@ -737,6 +749,9 @@
   </si>
   <si>
     <t>['48']</t>
+  </si>
+  <si>
+    <t>['27', '37']</t>
   </si>
 </sst>
 </file>
@@ -1098,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK134"/>
+  <dimension ref="A1:BK139"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1429,10 +1444,10 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT2">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU2">
         <v>0</v>
@@ -1620,10 +1635,10 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT3">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1724,7 +1739,7 @@
         <v>78</v>
       </c>
       <c r="P4" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="Q4">
         <v>4</v>
@@ -1811,10 +1826,10 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT4">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1915,7 +1930,7 @@
         <v>79</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -2193,10 +2208,10 @@
         <v>0</v>
       </c>
       <c r="AS6">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT6">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -2384,10 +2399,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT7">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2488,7 +2503,7 @@
         <v>82</v>
       </c>
       <c r="P8" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="Q8">
         <v>5</v>
@@ -2679,7 +2694,7 @@
         <v>83</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>12</v>
@@ -2870,7 +2885,7 @@
         <v>84</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>1</v>
@@ -2960,7 +2975,7 @@
         <v>1.33</v>
       </c>
       <c r="AT10">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU10">
         <v>1.91</v>
@@ -3533,7 +3548,7 @@
         <v>1.91</v>
       </c>
       <c r="AT13">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU13">
         <v>0.24</v>
@@ -3721,10 +3736,10 @@
         <v>0.5</v>
       </c>
       <c r="AS14">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT14">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU14">
         <v>1.05</v>
@@ -3825,7 +3840,7 @@
         <v>89</v>
       </c>
       <c r="P15" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q15">
         <v>12</v>
@@ -3912,10 +3927,10 @@
         <v>3</v>
       </c>
       <c r="AS15">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT15">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU15">
         <v>2.12</v>
@@ -4016,7 +4031,7 @@
         <v>90</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q16">
         <v>13</v>
@@ -4106,7 +4121,7 @@
         <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU16">
         <v>1.67</v>
@@ -4207,7 +4222,7 @@
         <v>91</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4294,7 +4309,7 @@
         <v>1</v>
       </c>
       <c r="AS17">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT17">
         <v>1.18</v>
@@ -4485,10 +4500,10 @@
         <v>0</v>
       </c>
       <c r="AS18">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT18">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU18">
         <v>1.16</v>
@@ -4589,7 +4604,7 @@
         <v>87</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>15</v>
@@ -4780,7 +4795,7 @@
         <v>93</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>5</v>
@@ -4971,7 +4986,7 @@
         <v>94</v>
       </c>
       <c r="P21" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="Q21">
         <v>9</v>
@@ -5162,7 +5177,7 @@
         <v>95</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>1</v>
@@ -5353,7 +5368,7 @@
         <v>96</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="Q23">
         <v>10</v>
@@ -5440,7 +5455,7 @@
         <v>1</v>
       </c>
       <c r="AS23">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT23">
         <v>1.18</v>
@@ -5634,7 +5649,7 @@
         <v>1.91</v>
       </c>
       <c r="AT24">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU24">
         <v>0.91</v>
@@ -5735,7 +5750,7 @@
         <v>98</v>
       </c>
       <c r="P25" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>3</v>
@@ -5822,10 +5837,10 @@
         <v>2</v>
       </c>
       <c r="AS25">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT25">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU25">
         <v>1.28</v>
@@ -5926,7 +5941,7 @@
         <v>99</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="Q26">
         <v>7</v>
@@ -6016,7 +6031,7 @@
         <v>1.91</v>
       </c>
       <c r="AT26">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU26">
         <v>0.24</v>
@@ -6117,7 +6132,7 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>5</v>
@@ -6207,7 +6222,7 @@
         <v>1.33</v>
       </c>
       <c r="AT27">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU27">
         <v>1.67</v>
@@ -6308,7 +6323,7 @@
         <v>101</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>177</v>
       </c>
       <c r="Q28">
         <v>10</v>
@@ -6395,7 +6410,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT28">
         <v>1</v>
@@ -6589,7 +6604,7 @@
         <v>1.64</v>
       </c>
       <c r="AT29">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU29">
         <v>1.99</v>
@@ -6690,7 +6705,7 @@
         <v>103</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>8</v>
@@ -6881,7 +6896,7 @@
         <v>104</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>5</v>
@@ -6968,7 +6983,7 @@
         <v>3</v>
       </c>
       <c r="AS31">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT31">
         <v>1.45</v>
@@ -7072,7 +7087,7 @@
         <v>105</v>
       </c>
       <c r="P32" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>6</v>
@@ -7263,7 +7278,7 @@
         <v>77</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q33">
         <v>5</v>
@@ -7541,7 +7556,7 @@
         <v>0</v>
       </c>
       <c r="AS34">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT34">
         <v>0.73</v>
@@ -7645,7 +7660,7 @@
         <v>77</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q35">
         <v>4</v>
@@ -7735,7 +7750,7 @@
         <v>1.91</v>
       </c>
       <c r="AT35">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU35">
         <v>1.01</v>
@@ -7923,7 +7938,7 @@
         <v>1.67</v>
       </c>
       <c r="AS36">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT36">
         <v>1.18</v>
@@ -8027,7 +8042,7 @@
         <v>107</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q37">
         <v>2</v>
@@ -8117,7 +8132,7 @@
         <v>0.91</v>
       </c>
       <c r="AT37">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU37">
         <v>1.04</v>
@@ -8308,7 +8323,7 @@
         <v>1.91</v>
       </c>
       <c r="AT38">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU38">
         <v>0.24</v>
@@ -8409,7 +8424,7 @@
         <v>77</v>
       </c>
       <c r="P39" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q39">
         <v>9</v>
@@ -8600,7 +8615,7 @@
         <v>77</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q40">
         <v>3</v>
@@ -8687,7 +8702,7 @@
         <v>3</v>
       </c>
       <c r="AS40">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT40">
         <v>2.09</v>
@@ -8878,7 +8893,7 @@
         <v>0.33</v>
       </c>
       <c r="AS41">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT41">
         <v>1.08</v>
@@ -9069,7 +9084,7 @@
         <v>0.67</v>
       </c>
       <c r="AS42">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT42">
         <v>1.36</v>
@@ -9263,7 +9278,7 @@
         <v>1.82</v>
       </c>
       <c r="AT43">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU43">
         <v>1.42</v>
@@ -9364,7 +9379,7 @@
         <v>111</v>
       </c>
       <c r="P44" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q44">
         <v>7</v>
@@ -9454,7 +9469,7 @@
         <v>1.36</v>
       </c>
       <c r="AT44">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU44">
         <v>1.66</v>
@@ -9642,7 +9657,7 @@
         <v>3</v>
       </c>
       <c r="AS45">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT45">
         <v>1.45</v>
@@ -9746,7 +9761,7 @@
         <v>113</v>
       </c>
       <c r="P46" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q46">
         <v>4</v>
@@ -9833,10 +9848,10 @@
         <v>1</v>
       </c>
       <c r="AS46">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT46">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU46">
         <v>1.96</v>
@@ -9937,7 +9952,7 @@
         <v>114</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>3</v>
@@ -10215,7 +10230,7 @@
         <v>2</v>
       </c>
       <c r="AS48">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT48">
         <v>1.45</v>
@@ -10319,7 +10334,7 @@
         <v>116</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q49">
         <v>4</v>
@@ -10510,7 +10525,7 @@
         <v>97</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q50">
         <v>2</v>
@@ -10600,7 +10615,7 @@
         <v>0.91</v>
       </c>
       <c r="AT50">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU50">
         <v>1.08</v>
@@ -10788,7 +10803,7 @@
         <v>3</v>
       </c>
       <c r="AS51">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT51">
         <v>2.09</v>
@@ -10892,7 +10907,7 @@
         <v>118</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q52">
         <v>5</v>
@@ -10982,7 +10997,7 @@
         <v>1.64</v>
       </c>
       <c r="AT52">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU52">
         <v>1.67</v>
@@ -11083,7 +11098,7 @@
         <v>119</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q53">
         <v>6</v>
@@ -11173,7 +11188,7 @@
         <v>1.82</v>
       </c>
       <c r="AT53">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU53">
         <v>1.22</v>
@@ -11274,7 +11289,7 @@
         <v>120</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q54">
         <v>6</v>
@@ -11361,7 +11376,7 @@
         <v>0.75</v>
       </c>
       <c r="AS54">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT54">
         <v>1.36</v>
@@ -11555,7 +11570,7 @@
         <v>1.33</v>
       </c>
       <c r="AT55">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU55">
         <v>1.74</v>
@@ -11656,7 +11671,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>7</v>
@@ -11743,10 +11758,10 @@
         <v>0.2</v>
       </c>
       <c r="AS56">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT56">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU56">
         <v>1.11</v>
@@ -11847,7 +11862,7 @@
         <v>123</v>
       </c>
       <c r="P57" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>3</v>
@@ -11934,10 +11949,10 @@
         <v>1.2</v>
       </c>
       <c r="AS57">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT57">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU57">
         <v>1</v>
@@ -12125,7 +12140,7 @@
         <v>0.25</v>
       </c>
       <c r="AS58">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT58">
         <v>1.08</v>
@@ -12420,7 +12435,7 @@
         <v>125</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>6</v>
@@ -12507,7 +12522,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT60">
         <v>1.45</v>
@@ -13083,7 +13098,7 @@
         <v>0.91</v>
       </c>
       <c r="AT63">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU63">
         <v>1.11</v>
@@ -13184,7 +13199,7 @@
         <v>129</v>
       </c>
       <c r="P64" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>3</v>
@@ -13375,7 +13390,7 @@
         <v>130</v>
       </c>
       <c r="P65" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q65">
         <v>6</v>
@@ -13566,7 +13581,7 @@
         <v>131</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q66">
         <v>6</v>
@@ -13757,7 +13772,7 @@
         <v>77</v>
       </c>
       <c r="P67" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q67">
         <v>5</v>
@@ -14139,7 +14154,7 @@
         <v>132</v>
       </c>
       <c r="P69" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>6</v>
@@ -14521,7 +14536,7 @@
         <v>134</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q71">
         <v>4</v>
@@ -14990,10 +15005,10 @@
         <v>0.17</v>
       </c>
       <c r="AS73">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT73">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU73">
         <v>1.11</v>
@@ -15094,7 +15109,7 @@
         <v>136</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>2</v>
@@ -15181,7 +15196,7 @@
         <v>0.2</v>
       </c>
       <c r="AS74">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT74">
         <v>1.08</v>
@@ -15372,10 +15387,10 @@
         <v>0.6</v>
       </c>
       <c r="AS75">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT75">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU75">
         <v>0.82</v>
@@ -15476,7 +15491,7 @@
         <v>137</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>5</v>
@@ -15563,10 +15578,10 @@
         <v>1.5</v>
       </c>
       <c r="AS76">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT76">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU76">
         <v>1.87</v>
@@ -15667,7 +15682,7 @@
         <v>138</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>6</v>
@@ -15754,10 +15769,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT77">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU77">
         <v>1.66</v>
@@ -16431,7 +16446,7 @@
         <v>77</v>
       </c>
       <c r="P81" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>8</v>
@@ -16709,7 +16724,7 @@
         <v>1.29</v>
       </c>
       <c r="AS82">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT82">
         <v>1</v>
@@ -16813,7 +16828,7 @@
         <v>142</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>5</v>
@@ -17004,7 +17019,7 @@
         <v>77</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q84">
         <v>6</v>
@@ -17094,7 +17109,7 @@
         <v>1.33</v>
       </c>
       <c r="AT84">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU84">
         <v>1.74</v>
@@ -17195,7 +17210,7 @@
         <v>143</v>
       </c>
       <c r="P85" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q85">
         <v>7</v>
@@ -17282,10 +17297,10 @@
         <v>1.43</v>
       </c>
       <c r="AS85">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT85">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU85">
         <v>1.08</v>
@@ -17476,7 +17491,7 @@
         <v>1.91</v>
       </c>
       <c r="AT86">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU86">
         <v>0.59</v>
@@ -17577,7 +17592,7 @@
         <v>145</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>8</v>
@@ -17664,7 +17679,7 @@
         <v>1.29</v>
       </c>
       <c r="AS87">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT87">
         <v>1.18</v>
@@ -17768,7 +17783,7 @@
         <v>146</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>9</v>
@@ -17855,10 +17870,10 @@
         <v>0.57</v>
       </c>
       <c r="AS88">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT88">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU88">
         <v>1.78</v>
@@ -18046,10 +18061,10 @@
         <v>1</v>
       </c>
       <c r="AS89">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT89">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU89">
         <v>1.15</v>
@@ -18150,7 +18165,7 @@
         <v>148</v>
       </c>
       <c r="P90" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q90">
         <v>11</v>
@@ -18341,7 +18356,7 @@
         <v>149</v>
       </c>
       <c r="P91" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q91">
         <v>2</v>
@@ -18428,7 +18443,7 @@
         <v>0.67</v>
       </c>
       <c r="AS91">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT91">
         <v>0.73</v>
@@ -18723,7 +18738,7 @@
         <v>150</v>
       </c>
       <c r="P93" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q93">
         <v>3</v>
@@ -18914,7 +18929,7 @@
         <v>77</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q94">
         <v>4</v>
@@ -19001,7 +19016,7 @@
         <v>1.67</v>
       </c>
       <c r="AS94">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT94">
         <v>2.09</v>
@@ -19195,7 +19210,7 @@
         <v>0.91</v>
       </c>
       <c r="AT95">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU95">
         <v>1.25</v>
@@ -19487,7 +19502,7 @@
         <v>152</v>
       </c>
       <c r="P97" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q97">
         <v>4</v>
@@ -19768,7 +19783,7 @@
         <v>1.91</v>
       </c>
       <c r="AT98">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU98">
         <v>0.75</v>
@@ -19956,10 +19971,10 @@
         <v>0.86</v>
       </c>
       <c r="AS99">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT99">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU99">
         <v>1.65</v>
@@ -20150,7 +20165,7 @@
         <v>1.91</v>
       </c>
       <c r="AT100">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU100">
         <v>1.14</v>
@@ -20251,7 +20266,7 @@
         <v>154</v>
       </c>
       <c r="P101" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="Q101">
         <v>2</v>
@@ -20338,7 +20353,7 @@
         <v>1.13</v>
       </c>
       <c r="AS101">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT101">
         <v>1</v>
@@ -20529,10 +20544,10 @@
         <v>0.5</v>
       </c>
       <c r="AS102">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT102">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU102">
         <v>1.17</v>
@@ -20633,7 +20648,7 @@
         <v>156</v>
       </c>
       <c r="P103" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q103">
         <v>5</v>
@@ -20720,7 +20735,7 @@
         <v>2</v>
       </c>
       <c r="AS103">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT103">
         <v>2.09</v>
@@ -20914,7 +20929,7 @@
         <v>1.64</v>
       </c>
       <c r="AT104">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU104">
         <v>1.67</v>
@@ -21102,7 +21117,7 @@
         <v>1.25</v>
       </c>
       <c r="AS105">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT105">
         <v>1.36</v>
@@ -21206,7 +21221,7 @@
         <v>131</v>
       </c>
       <c r="P106" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q106">
         <v>3</v>
@@ -21293,7 +21308,7 @@
         <v>1.56</v>
       </c>
       <c r="AS106">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT106">
         <v>1.45</v>
@@ -21678,7 +21693,7 @@
         <v>1.36</v>
       </c>
       <c r="AT108">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU108">
         <v>1.59</v>
@@ -21779,7 +21794,7 @@
         <v>157</v>
       </c>
       <c r="P109" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="Q109">
         <v>7</v>
@@ -21866,7 +21881,7 @@
         <v>0.57</v>
       </c>
       <c r="AS109">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT109">
         <v>0.73</v>
@@ -21970,7 +21985,7 @@
         <v>158</v>
       </c>
       <c r="P110" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q110">
         <v>2</v>
@@ -22060,7 +22075,7 @@
         <v>1.91</v>
       </c>
       <c r="AT110">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU110">
         <v>1.15</v>
@@ -22161,7 +22176,7 @@
         <v>159</v>
       </c>
       <c r="P111" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="Q111">
         <v>3</v>
@@ -22248,7 +22263,7 @@
         <v>1</v>
       </c>
       <c r="AS111">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT111">
         <v>1</v>
@@ -22543,7 +22558,7 @@
         <v>160</v>
       </c>
       <c r="P113" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q113">
         <v>6</v>
@@ -22824,7 +22839,7 @@
         <v>1.64</v>
       </c>
       <c r="AT114">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU114">
         <v>1.57</v>
@@ -23307,7 +23322,7 @@
         <v>77</v>
       </c>
       <c r="P117" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="Q117">
         <v>6</v>
@@ -23394,10 +23409,10 @@
         <v>0.33</v>
       </c>
       <c r="AS117">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT117">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU117">
         <v>1.05</v>
@@ -23498,7 +23513,7 @@
         <v>163</v>
       </c>
       <c r="P118" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q118">
         <v>13</v>
@@ -23585,7 +23600,7 @@
         <v>1.22</v>
       </c>
       <c r="AS118">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT118">
         <v>1.36</v>
@@ -23689,7 +23704,7 @@
         <v>164</v>
       </c>
       <c r="P119" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="Q119">
         <v>2</v>
@@ -23779,7 +23794,7 @@
         <v>1.82</v>
       </c>
       <c r="AT119">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU119">
         <v>1.34</v>
@@ -23970,7 +23985,7 @@
         <v>1.36</v>
       </c>
       <c r="AT120">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU120">
         <v>1.72</v>
@@ -24071,7 +24086,7 @@
         <v>165</v>
       </c>
       <c r="P121" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="Q121">
         <v>6</v>
@@ -24158,7 +24173,7 @@
         <v>0.67</v>
       </c>
       <c r="AS121">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT121">
         <v>1.08</v>
@@ -24453,7 +24468,7 @@
         <v>166</v>
       </c>
       <c r="P123" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="Q123">
         <v>9</v>
@@ -24543,7 +24558,7 @@
         <v>1.36</v>
       </c>
       <c r="AT123">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="AU123">
         <v>1.69</v>
@@ -24644,7 +24659,7 @@
         <v>167</v>
       </c>
       <c r="P124" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="Q124">
         <v>3</v>
@@ -24835,7 +24850,7 @@
         <v>168</v>
       </c>
       <c r="P125" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="Q125">
         <v>2</v>
@@ -25026,7 +25041,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q126">
         <v>6</v>
@@ -25113,7 +25128,7 @@
         <v>0.7</v>
       </c>
       <c r="AS126">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="AT126">
         <v>0.73</v>
@@ -25217,7 +25232,7 @@
         <v>77</v>
       </c>
       <c r="P127" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q127">
         <v>2</v>
@@ -25495,10 +25510,10 @@
         <v>0.6</v>
       </c>
       <c r="AS128">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="AT128">
-        <v>0.64</v>
+        <v>0.58</v>
       </c>
       <c r="AU128">
         <v>1.69</v>
@@ -25790,7 +25805,7 @@
         <v>170</v>
       </c>
       <c r="P130" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="Q130">
         <v>6</v>
@@ -25877,10 +25892,10 @@
         <v>1.2</v>
       </c>
       <c r="AS130">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT130">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AU130">
         <v>1.12</v>
@@ -26071,7 +26086,7 @@
         <v>1.82</v>
       </c>
       <c r="AT131">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="AU131">
         <v>1.34</v>
@@ -26259,10 +26274,10 @@
         <v>1.2</v>
       </c>
       <c r="AS132">
-        <v>1</v>
+        <v>1.17</v>
       </c>
       <c r="AT132">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AU132">
         <v>1.17</v>
@@ -26363,7 +26378,7 @@
         <v>163</v>
       </c>
       <c r="P133" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q133">
         <v>8</v>
@@ -26450,7 +26465,7 @@
         <v>0.9</v>
       </c>
       <c r="AS133">
-        <v>1.45</v>
+        <v>1.58</v>
       </c>
       <c r="AT133">
         <v>1.08</v>
@@ -26554,7 +26569,7 @@
         <v>77</v>
       </c>
       <c r="P134" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="Q134">
         <v>9</v>
@@ -26696,6 +26711,961 @@
       </c>
       <c r="BK134">
         <v>8</v>
+      </c>
+    </row>
+    <row r="135" spans="1:63">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>3175821</v>
+      </c>
+      <c r="C135" t="s">
+        <v>63</v>
+      </c>
+      <c r="D135" t="s">
+        <v>64</v>
+      </c>
+      <c r="E135" s="2">
+        <v>44996.54166666666</v>
+      </c>
+      <c r="F135">
+        <v>23</v>
+      </c>
+      <c r="G135" t="s">
+        <v>69</v>
+      </c>
+      <c r="H135" t="s">
+        <v>74</v>
+      </c>
+      <c r="I135">
+        <v>1</v>
+      </c>
+      <c r="J135">
+        <v>1</v>
+      </c>
+      <c r="K135">
+        <v>2</v>
+      </c>
+      <c r="L135">
+        <v>2</v>
+      </c>
+      <c r="M135">
+        <v>1</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>173</v>
+      </c>
+      <c r="P135" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q135">
+        <v>6</v>
+      </c>
+      <c r="R135">
+        <v>5</v>
+      </c>
+      <c r="S135">
+        <v>11</v>
+      </c>
+      <c r="T135">
+        <v>0</v>
+      </c>
+      <c r="U135">
+        <v>0</v>
+      </c>
+      <c r="V135">
+        <v>0</v>
+      </c>
+      <c r="W135">
+        <v>0</v>
+      </c>
+      <c r="X135">
+        <v>0</v>
+      </c>
+      <c r="Y135">
+        <v>0</v>
+      </c>
+      <c r="Z135">
+        <v>0</v>
+      </c>
+      <c r="AA135">
+        <v>0</v>
+      </c>
+      <c r="AB135">
+        <v>0</v>
+      </c>
+      <c r="AC135">
+        <v>0</v>
+      </c>
+      <c r="AD135">
+        <v>0</v>
+      </c>
+      <c r="AE135">
+        <v>0</v>
+      </c>
+      <c r="AF135">
+        <v>0</v>
+      </c>
+      <c r="AG135">
+        <v>0</v>
+      </c>
+      <c r="AH135">
+        <v>0</v>
+      </c>
+      <c r="AI135">
+        <v>0</v>
+      </c>
+      <c r="AJ135">
+        <v>0</v>
+      </c>
+      <c r="AK135">
+        <v>0</v>
+      </c>
+      <c r="AL135">
+        <v>0</v>
+      </c>
+      <c r="AM135">
+        <v>0</v>
+      </c>
+      <c r="AN135">
+        <v>0</v>
+      </c>
+      <c r="AO135">
+        <v>0</v>
+      </c>
+      <c r="AP135">
+        <v>0</v>
+      </c>
+      <c r="AQ135">
+        <v>1.45</v>
+      </c>
+      <c r="AR135">
+        <v>0.36</v>
+      </c>
+      <c r="AS135">
+        <v>1.58</v>
+      </c>
+      <c r="AT135">
+        <v>0.33</v>
+      </c>
+      <c r="AU135">
+        <v>1.17</v>
+      </c>
+      <c r="AV135">
+        <v>1.05</v>
+      </c>
+      <c r="AW135">
+        <v>2.22</v>
+      </c>
+      <c r="AX135">
+        <v>0</v>
+      </c>
+      <c r="AY135">
+        <v>0</v>
+      </c>
+      <c r="AZ135">
+        <v>0</v>
+      </c>
+      <c r="BA135">
+        <v>0</v>
+      </c>
+      <c r="BB135">
+        <v>0</v>
+      </c>
+      <c r="BC135">
+        <v>0</v>
+      </c>
+      <c r="BD135">
+        <v>0</v>
+      </c>
+      <c r="BE135">
+        <v>0</v>
+      </c>
+      <c r="BF135">
+        <v>2</v>
+      </c>
+      <c r="BG135">
+        <v>3</v>
+      </c>
+      <c r="BH135">
+        <v>6</v>
+      </c>
+      <c r="BI135">
+        <v>6</v>
+      </c>
+      <c r="BJ135">
+        <v>8</v>
+      </c>
+      <c r="BK135">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="136" spans="1:63">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>3175820</v>
+      </c>
+      <c r="C136" t="s">
+        <v>63</v>
+      </c>
+      <c r="D136" t="s">
+        <v>64</v>
+      </c>
+      <c r="E136" s="2">
+        <v>44996.64583333334</v>
+      </c>
+      <c r="F136">
+        <v>23</v>
+      </c>
+      <c r="G136" t="s">
+        <v>65</v>
+      </c>
+      <c r="H136" t="s">
+        <v>75</v>
+      </c>
+      <c r="I136">
+        <v>1</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>1</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>174</v>
+      </c>
+      <c r="P136" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q136">
+        <v>11</v>
+      </c>
+      <c r="R136">
+        <v>4</v>
+      </c>
+      <c r="S136">
+        <v>15</v>
+      </c>
+      <c r="T136">
+        <v>0</v>
+      </c>
+      <c r="U136">
+        <v>0</v>
+      </c>
+      <c r="V136">
+        <v>0</v>
+      </c>
+      <c r="W136">
+        <v>0</v>
+      </c>
+      <c r="X136">
+        <v>0</v>
+      </c>
+      <c r="Y136">
+        <v>0</v>
+      </c>
+      <c r="Z136">
+        <v>0</v>
+      </c>
+      <c r="AA136">
+        <v>0</v>
+      </c>
+      <c r="AB136">
+        <v>0</v>
+      </c>
+      <c r="AC136">
+        <v>2.36</v>
+      </c>
+      <c r="AD136">
+        <v>3.25</v>
+      </c>
+      <c r="AE136">
+        <v>2.71</v>
+      </c>
+      <c r="AF136">
+        <v>0</v>
+      </c>
+      <c r="AG136">
+        <v>0</v>
+      </c>
+      <c r="AH136">
+        <v>0</v>
+      </c>
+      <c r="AI136">
+        <v>0</v>
+      </c>
+      <c r="AJ136">
+        <v>1.74</v>
+      </c>
+      <c r="AK136">
+        <v>1.91</v>
+      </c>
+      <c r="AL136">
+        <v>0</v>
+      </c>
+      <c r="AM136">
+        <v>0</v>
+      </c>
+      <c r="AN136">
+        <v>0</v>
+      </c>
+      <c r="AO136">
+        <v>0</v>
+      </c>
+      <c r="AP136">
+        <v>0</v>
+      </c>
+      <c r="AQ136">
+        <v>1</v>
+      </c>
+      <c r="AR136">
+        <v>1.09</v>
+      </c>
+      <c r="AS136">
+        <v>1.17</v>
+      </c>
+      <c r="AT136">
+        <v>1</v>
+      </c>
+      <c r="AU136">
+        <v>1.17</v>
+      </c>
+      <c r="AV136">
+        <v>1.51</v>
+      </c>
+      <c r="AW136">
+        <v>2.68</v>
+      </c>
+      <c r="AX136">
+        <v>0</v>
+      </c>
+      <c r="AY136">
+        <v>0</v>
+      </c>
+      <c r="AZ136">
+        <v>0</v>
+      </c>
+      <c r="BA136">
+        <v>0</v>
+      </c>
+      <c r="BB136">
+        <v>0</v>
+      </c>
+      <c r="BC136">
+        <v>0</v>
+      </c>
+      <c r="BD136">
+        <v>0</v>
+      </c>
+      <c r="BE136">
+        <v>0</v>
+      </c>
+      <c r="BF136">
+        <v>4</v>
+      </c>
+      <c r="BG136">
+        <v>2</v>
+      </c>
+      <c r="BH136">
+        <v>8</v>
+      </c>
+      <c r="BI136">
+        <v>3</v>
+      </c>
+      <c r="BJ136">
+        <v>12</v>
+      </c>
+      <c r="BK136">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="137" spans="1:63">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>3175816</v>
+      </c>
+      <c r="C137" t="s">
+        <v>63</v>
+      </c>
+      <c r="D137" t="s">
+        <v>64</v>
+      </c>
+      <c r="E137" s="2">
+        <v>44997.42013888889</v>
+      </c>
+      <c r="F137">
+        <v>23</v>
+      </c>
+      <c r="G137" t="s">
+        <v>66</v>
+      </c>
+      <c r="H137" t="s">
+        <v>71</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>0</v>
+      </c>
+      <c r="K137">
+        <v>0</v>
+      </c>
+      <c r="L137">
+        <v>2</v>
+      </c>
+      <c r="M137">
+        <v>0</v>
+      </c>
+      <c r="N137">
+        <v>2</v>
+      </c>
+      <c r="O137" t="s">
+        <v>175</v>
+      </c>
+      <c r="P137" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q137">
+        <v>6</v>
+      </c>
+      <c r="R137">
+        <v>7</v>
+      </c>
+      <c r="S137">
+        <v>13</v>
+      </c>
+      <c r="T137">
+        <v>0</v>
+      </c>
+      <c r="U137">
+        <v>0</v>
+      </c>
+      <c r="V137">
+        <v>0</v>
+      </c>
+      <c r="W137">
+        <v>0</v>
+      </c>
+      <c r="X137">
+        <v>0</v>
+      </c>
+      <c r="Y137">
+        <v>0</v>
+      </c>
+      <c r="Z137">
+        <v>0</v>
+      </c>
+      <c r="AA137">
+        <v>0</v>
+      </c>
+      <c r="AB137">
+        <v>0</v>
+      </c>
+      <c r="AC137">
+        <v>2.02</v>
+      </c>
+      <c r="AD137">
+        <v>3.3</v>
+      </c>
+      <c r="AE137">
+        <v>3.1</v>
+      </c>
+      <c r="AF137">
+        <v>0</v>
+      </c>
+      <c r="AG137">
+        <v>0</v>
+      </c>
+      <c r="AH137">
+        <v>0</v>
+      </c>
+      <c r="AI137">
+        <v>0</v>
+      </c>
+      <c r="AJ137">
+        <v>1.99</v>
+      </c>
+      <c r="AK137">
+        <v>1.77</v>
+      </c>
+      <c r="AL137">
+        <v>0</v>
+      </c>
+      <c r="AM137">
+        <v>0</v>
+      </c>
+      <c r="AN137">
+        <v>0</v>
+      </c>
+      <c r="AO137">
+        <v>0</v>
+      </c>
+      <c r="AP137">
+        <v>0</v>
+      </c>
+      <c r="AQ137">
+        <v>1.91</v>
+      </c>
+      <c r="AR137">
+        <v>0.82</v>
+      </c>
+      <c r="AS137">
+        <v>2</v>
+      </c>
+      <c r="AT137">
+        <v>0.75</v>
+      </c>
+      <c r="AU137">
+        <v>1.11</v>
+      </c>
+      <c r="AV137">
+        <v>1.01</v>
+      </c>
+      <c r="AW137">
+        <v>2.12</v>
+      </c>
+      <c r="AX137">
+        <v>0</v>
+      </c>
+      <c r="AY137">
+        <v>0</v>
+      </c>
+      <c r="AZ137">
+        <v>0</v>
+      </c>
+      <c r="BA137">
+        <v>0</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>0</v>
+      </c>
+      <c r="BD137">
+        <v>0</v>
+      </c>
+      <c r="BE137">
+        <v>0</v>
+      </c>
+      <c r="BF137">
+        <v>5</v>
+      </c>
+      <c r="BG137">
+        <v>3</v>
+      </c>
+      <c r="BH137">
+        <v>11</v>
+      </c>
+      <c r="BI137">
+        <v>5</v>
+      </c>
+      <c r="BJ137">
+        <v>16</v>
+      </c>
+      <c r="BK137">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="138" spans="1:63">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>3175818</v>
+      </c>
+      <c r="C138" t="s">
+        <v>63</v>
+      </c>
+      <c r="D138" t="s">
+        <v>64</v>
+      </c>
+      <c r="E138" s="2">
+        <v>44997.5</v>
+      </c>
+      <c r="F138">
+        <v>23</v>
+      </c>
+      <c r="G138" t="s">
+        <v>67</v>
+      </c>
+      <c r="H138" t="s">
+        <v>76</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>0</v>
+      </c>
+      <c r="N138">
+        <v>1</v>
+      </c>
+      <c r="O138" t="s">
+        <v>176</v>
+      </c>
+      <c r="P138" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q138">
+        <v>8</v>
+      </c>
+      <c r="R138">
+        <v>5</v>
+      </c>
+      <c r="S138">
+        <v>13</v>
+      </c>
+      <c r="T138">
+        <v>0</v>
+      </c>
+      <c r="U138">
+        <v>0</v>
+      </c>
+      <c r="V138">
+        <v>0</v>
+      </c>
+      <c r="W138">
+        <v>0</v>
+      </c>
+      <c r="X138">
+        <v>0</v>
+      </c>
+      <c r="Y138">
+        <v>0</v>
+      </c>
+      <c r="Z138">
+        <v>0</v>
+      </c>
+      <c r="AA138">
+        <v>0</v>
+      </c>
+      <c r="AB138">
+        <v>0</v>
+      </c>
+      <c r="AC138">
+        <v>2.09</v>
+      </c>
+      <c r="AD138">
+        <v>3.45</v>
+      </c>
+      <c r="AE138">
+        <v>2.85</v>
+      </c>
+      <c r="AF138">
+        <v>0</v>
+      </c>
+      <c r="AG138">
+        <v>0</v>
+      </c>
+      <c r="AH138">
+        <v>0</v>
+      </c>
+      <c r="AI138">
+        <v>0</v>
+      </c>
+      <c r="AJ138">
+        <v>1.8</v>
+      </c>
+      <c r="AK138">
+        <v>1.96</v>
+      </c>
+      <c r="AL138">
+        <v>0</v>
+      </c>
+      <c r="AM138">
+        <v>0</v>
+      </c>
+      <c r="AN138">
+        <v>0</v>
+      </c>
+      <c r="AO138">
+        <v>0</v>
+      </c>
+      <c r="AP138">
+        <v>0</v>
+      </c>
+      <c r="AQ138">
+        <v>1.45</v>
+      </c>
+      <c r="AR138">
+        <v>0.64</v>
+      </c>
+      <c r="AS138">
+        <v>1.58</v>
+      </c>
+      <c r="AT138">
+        <v>0.58</v>
+      </c>
+      <c r="AU138">
+        <v>1.68</v>
+      </c>
+      <c r="AV138">
+        <v>1.15</v>
+      </c>
+      <c r="AW138">
+        <v>2.83</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>0</v>
+      </c>
+      <c r="AZ138">
+        <v>0</v>
+      </c>
+      <c r="BA138">
+        <v>0</v>
+      </c>
+      <c r="BB138">
+        <v>0</v>
+      </c>
+      <c r="BC138">
+        <v>0</v>
+      </c>
+      <c r="BD138">
+        <v>0</v>
+      </c>
+      <c r="BE138">
+        <v>0</v>
+      </c>
+      <c r="BF138">
+        <v>7</v>
+      </c>
+      <c r="BG138">
+        <v>4</v>
+      </c>
+      <c r="BH138">
+        <v>9</v>
+      </c>
+      <c r="BI138">
+        <v>1</v>
+      </c>
+      <c r="BJ138">
+        <v>16</v>
+      </c>
+      <c r="BK138">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:63">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>3175819</v>
+      </c>
+      <c r="C139" t="s">
+        <v>63</v>
+      </c>
+      <c r="D139" t="s">
+        <v>64</v>
+      </c>
+      <c r="E139" s="2">
+        <v>44997.59375</v>
+      </c>
+      <c r="F139">
+        <v>23</v>
+      </c>
+      <c r="G139" t="s">
+        <v>70</v>
+      </c>
+      <c r="H139" t="s">
+        <v>73</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>2</v>
+      </c>
+      <c r="K139">
+        <v>2</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>2</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>177</v>
+      </c>
+      <c r="P139" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q139">
+        <v>6</v>
+      </c>
+      <c r="R139">
+        <v>2</v>
+      </c>
+      <c r="S139">
+        <v>8</v>
+      </c>
+      <c r="T139">
+        <v>0</v>
+      </c>
+      <c r="U139">
+        <v>0</v>
+      </c>
+      <c r="V139">
+        <v>0</v>
+      </c>
+      <c r="W139">
+        <v>0</v>
+      </c>
+      <c r="X139">
+        <v>0</v>
+      </c>
+      <c r="Y139">
+        <v>0</v>
+      </c>
+      <c r="Z139">
+        <v>0</v>
+      </c>
+      <c r="AA139">
+        <v>0</v>
+      </c>
+      <c r="AB139">
+        <v>0</v>
+      </c>
+      <c r="AC139">
+        <v>1.57</v>
+      </c>
+      <c r="AD139">
+        <v>4</v>
+      </c>
+      <c r="AE139">
+        <v>5</v>
+      </c>
+      <c r="AF139">
+        <v>0</v>
+      </c>
+      <c r="AG139">
+        <v>0</v>
+      </c>
+      <c r="AH139">
+        <v>0</v>
+      </c>
+      <c r="AI139">
+        <v>0</v>
+      </c>
+      <c r="AJ139">
+        <v>1.75</v>
+      </c>
+      <c r="AK139">
+        <v>2</v>
+      </c>
+      <c r="AL139">
+        <v>0</v>
+      </c>
+      <c r="AM139">
+        <v>0</v>
+      </c>
+      <c r="AN139">
+        <v>0</v>
+      </c>
+      <c r="AO139">
+        <v>0</v>
+      </c>
+      <c r="AP139">
+        <v>0</v>
+      </c>
+      <c r="AQ139">
+        <v>2.45</v>
+      </c>
+      <c r="AR139">
+        <v>1.09</v>
+      </c>
+      <c r="AS139">
+        <v>2.25</v>
+      </c>
+      <c r="AT139">
+        <v>1.25</v>
+      </c>
+      <c r="AU139">
+        <v>1.72</v>
+      </c>
+      <c r="AV139">
+        <v>1.4</v>
+      </c>
+      <c r="AW139">
+        <v>3.12</v>
+      </c>
+      <c r="AX139">
+        <v>0</v>
+      </c>
+      <c r="AY139">
+        <v>0</v>
+      </c>
+      <c r="AZ139">
+        <v>0</v>
+      </c>
+      <c r="BA139">
+        <v>0</v>
+      </c>
+      <c r="BB139">
+        <v>0</v>
+      </c>
+      <c r="BC139">
+        <v>0</v>
+      </c>
+      <c r="BD139">
+        <v>0</v>
+      </c>
+      <c r="BE139">
+        <v>0</v>
+      </c>
+      <c r="BF139">
+        <v>6</v>
+      </c>
+      <c r="BG139">
+        <v>2</v>
+      </c>
+      <c r="BH139">
+        <v>7</v>
+      </c>
+      <c r="BI139">
+        <v>8</v>
+      </c>
+      <c r="BJ139">
+        <v>13</v>
+      </c>
+      <c r="BK139">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Hungary NB I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Hungary NB I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK139"/>
+  <dimension ref="A1:BK142"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2321,10 +2321,10 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2930,10 +2930,10 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT12" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT13" t="n">
         <v>0.75</v>
@@ -4354,7 +4354,7 @@
         <v>1.64</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU19" t="n">
         <v>1.24</v>
@@ -4557,7 +4557,7 @@
         <v>1.36</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4760,7 +4760,7 @@
         <v>0.91</v>
       </c>
       <c r="AT21" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU21" t="n">
         <v>0.8</v>
@@ -4960,7 +4960,7 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT22" t="n">
         <v>1.08</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT24" t="n">
         <v>0.75</v>
@@ -5772,7 +5772,7 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT26" t="n">
         <v>1.25</v>
@@ -6181,7 +6181,7 @@
         <v>2.25</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU28" t="n">
         <v>1.33</v>
@@ -6790,7 +6790,7 @@
         <v>1.58</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU32" t="n">
         <v>1.04</v>
@@ -7599,7 +7599,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT35" t="n">
         <v>1</v>
@@ -8208,7 +8208,7 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT38" t="n">
         <v>0.33</v>
@@ -8414,7 +8414,7 @@
         <v>1.33</v>
       </c>
       <c r="AT39" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU39" t="n">
         <v>1.67</v>
@@ -9023,7 +9023,7 @@
         <v>1.17</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU42" t="n">
         <v>1.06</v>
@@ -9223,7 +9223,7 @@
         <v>0.25</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT43" t="n">
         <v>0.58</v>
@@ -9632,7 +9632,7 @@
         <v>2.25</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU45" t="n">
         <v>1.49</v>
@@ -10035,7 +10035,7 @@
         <v>1.25</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT47" t="n">
         <v>1.18</v>
@@ -10241,7 +10241,7 @@
         <v>1.58</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU48" t="n">
         <v>1.86</v>
@@ -10441,10 +10441,10 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT49" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU49" t="n">
         <v>0.24</v>
@@ -11253,7 +11253,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT53" t="n">
         <v>1</v>
@@ -11459,7 +11459,7 @@
         <v>1.58</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU54" t="n">
         <v>1.75</v>
@@ -12471,7 +12471,7 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT59" t="n">
         <v>0.73</v>
@@ -12677,7 +12677,7 @@
         <v>2</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU60" t="n">
         <v>1.04</v>
@@ -13083,7 +13083,7 @@
         <v>1.64</v>
       </c>
       <c r="AT62" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU62" t="n">
         <v>1.67</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT64" t="n">
         <v>0.73</v>
@@ -13689,7 +13689,7 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT65" t="n">
         <v>2.09</v>
@@ -13895,7 +13895,7 @@
         <v>0.91</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU66" t="n">
         <v>1.11</v>
@@ -14098,7 +14098,7 @@
         <v>1.36</v>
       </c>
       <c r="AT67" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU67" t="n">
         <v>1.42</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT68" t="n">
         <v>1.18</v>
@@ -14704,7 +14704,7 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT70" t="n">
         <v>0.73</v>
@@ -14907,10 +14907,10 @@
         <v>1.4</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU71" t="n">
         <v>0.59</v>
@@ -15110,10 +15110,10 @@
         <v>1.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU72" t="n">
         <v>1.19</v>
@@ -16328,10 +16328,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU78" t="n">
         <v>1.19</v>
@@ -16534,7 +16534,7 @@
         <v>1.64</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU79" t="n">
         <v>1.68</v>
@@ -17143,7 +17143,7 @@
         <v>1.58</v>
       </c>
       <c r="AT82" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU82" t="n">
         <v>1.17</v>
@@ -17343,7 +17343,7 @@
         <v>1.8</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT83" t="n">
         <v>2.09</v>
@@ -17952,7 +17952,7 @@
         <v>0.33</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT86" t="n">
         <v>0.58</v>
@@ -19173,7 +19173,7 @@
         <v>1.36</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU92" t="n">
         <v>1.55</v>
@@ -19373,10 +19373,10 @@
         <v>1.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU93" t="n">
         <v>1.36</v>
@@ -20388,7 +20388,7 @@
         <v>1.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT98" t="n">
         <v>1</v>
@@ -20794,7 +20794,7 @@
         <v>1.38</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT100" t="n">
         <v>1.25</v>
@@ -21000,7 +21000,7 @@
         <v>1.58</v>
       </c>
       <c r="AT101" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU101" t="n">
         <v>1.78</v>
@@ -21812,7 +21812,7 @@
         <v>1.58</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU105" t="n">
         <v>0.98</v>
@@ -22015,7 +22015,7 @@
         <v>1.17</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU106" t="n">
         <v>1.23</v>
@@ -22215,7 +22215,7 @@
         <v>0.63</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT107" t="n">
         <v>1.08</v>
@@ -22824,7 +22824,7 @@
         <v>0.44</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT110" t="n">
         <v>0.33</v>
@@ -23030,7 +23030,7 @@
         <v>2</v>
       </c>
       <c r="AT111" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU111" t="n">
         <v>1.13</v>
@@ -23433,7 +23433,7 @@
         <v>1.11</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT113" t="n">
         <v>1.18</v>
@@ -24451,7 +24451,7 @@
         <v>2.25</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU118" t="n">
         <v>1.6</v>
@@ -24651,7 +24651,7 @@
         <v>1.22</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT119" t="n">
         <v>1.25</v>
@@ -25260,10 +25260,10 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AT122" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU122" t="n">
         <v>1.14</v>
@@ -25872,7 +25872,7 @@
         <v>0.91</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AU125" t="n">
         <v>1.16</v>
@@ -26275,7 +26275,7 @@
         <v>2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AT127" t="n">
         <v>2.09</v>
@@ -26684,7 +26684,7 @@
         <v>1.33</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="AU129" t="n">
         <v>1.26</v>
@@ -27087,7 +27087,7 @@
         <v>0.9</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.82</v>
+        <v>1.92</v>
       </c>
       <c r="AT131" t="n">
         <v>0.75</v>
@@ -28766,6 +28766,615 @@
       </c>
       <c r="BK139" t="n">
         <v>10</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="n">
+        <v>3175822</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45003.42013888889</v>
+      </c>
+      <c r="F140" t="n">
+        <v>24</v>
+      </c>
+      <c r="G140" t="inlineStr">
+        <is>
+          <t>Mezőkövesd-Zsóry</t>
+        </is>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Várda SE</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>1</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1</v>
+      </c>
+      <c r="K140" t="n">
+        <v>2</v>
+      </c>
+      <c r="L140" t="n">
+        <v>1</v>
+      </c>
+      <c r="M140" t="n">
+        <v>1</v>
+      </c>
+      <c r="N140" t="n">
+        <v>2</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>['8']</t>
+        </is>
+      </c>
+      <c r="Q140" t="n">
+        <v>5</v>
+      </c>
+      <c r="R140" t="n">
+        <v>3</v>
+      </c>
+      <c r="S140" t="n">
+        <v>8</v>
+      </c>
+      <c r="T140" t="n">
+        <v>0</v>
+      </c>
+      <c r="U140" t="n">
+        <v>0</v>
+      </c>
+      <c r="V140" t="n">
+        <v>0</v>
+      </c>
+      <c r="W140" t="n">
+        <v>0</v>
+      </c>
+      <c r="X140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC140" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AD140" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ140" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR140" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AT140" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AU140" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AV140" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AW140" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AX140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY140" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE140" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH140" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI140" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ140" t="n">
+        <v>7</v>
+      </c>
+      <c r="BK140" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="n">
+        <v>3175823</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45003.48958333334</v>
+      </c>
+      <c r="F141" t="n">
+        <v>24</v>
+      </c>
+      <c r="G141" t="inlineStr">
+        <is>
+          <t>Debrecen</t>
+        </is>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Kecskeméti TE</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>0</v>
+      </c>
+      <c r="J141" t="n">
+        <v>0</v>
+      </c>
+      <c r="K141" t="n">
+        <v>0</v>
+      </c>
+      <c r="L141" t="n">
+        <v>1</v>
+      </c>
+      <c r="M141" t="n">
+        <v>2</v>
+      </c>
+      <c r="N141" t="n">
+        <v>3</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>['61']</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>['66', '80']</t>
+        </is>
+      </c>
+      <c r="Q141" t="n">
+        <v>6</v>
+      </c>
+      <c r="R141" t="n">
+        <v>2</v>
+      </c>
+      <c r="S141" t="n">
+        <v>8</v>
+      </c>
+      <c r="T141" t="n">
+        <v>0</v>
+      </c>
+      <c r="U141" t="n">
+        <v>0</v>
+      </c>
+      <c r="V141" t="n">
+        <v>0</v>
+      </c>
+      <c r="W141" t="n">
+        <v>0</v>
+      </c>
+      <c r="X141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y141" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC141" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD141" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE141" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ141" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK141" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ141" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR141" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS141" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT141" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AU141" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AV141" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW141" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AX141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY141" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE141" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF141" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG141" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH141" t="n">
+        <v>7</v>
+      </c>
+      <c r="BI141" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ141" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK141" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="n">
+        <v>3175824</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45003.65625</v>
+      </c>
+      <c r="F142" t="n">
+        <v>24</v>
+      </c>
+      <c r="G142" t="inlineStr">
+        <is>
+          <t>Videoton</t>
+        </is>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Honvéd</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>0</v>
+      </c>
+      <c r="K142" t="n">
+        <v>1</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2</v>
+      </c>
+      <c r="M142" t="n">
+        <v>0</v>
+      </c>
+      <c r="N142" t="n">
+        <v>2</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>['34', '90']</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q142" t="n">
+        <v>4</v>
+      </c>
+      <c r="R142" t="n">
+        <v>5</v>
+      </c>
+      <c r="S142" t="n">
+        <v>9</v>
+      </c>
+      <c r="T142" t="n">
+        <v>0</v>
+      </c>
+      <c r="U142" t="n">
+        <v>0</v>
+      </c>
+      <c r="V142" t="n">
+        <v>0</v>
+      </c>
+      <c r="W142" t="n">
+        <v>0</v>
+      </c>
+      <c r="X142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y142" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ142" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK142" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AL142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ142" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AR142" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS142" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AT142" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU142" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="AV142" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AW142" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AX142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY142" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE142" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF142" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG142" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH142" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ142" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK142" t="n">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Hungary NB I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Hungary NB I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK145"/>
+  <dimension ref="A1:BK151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -900,10 +900,10 @@
         <v>0</v>
       </c>
       <c r="AS2" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT2" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT3" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU3" t="n">
         <v>0</v>
@@ -1306,10 +1306,10 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT4" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU4" t="n">
         <v>0</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT5" t="n">
         <v>1.08</v>
@@ -1715,7 +1715,7 @@
         <v>1.58</v>
       </c>
       <c r="AT6" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,10 +1915,10 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT7" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU7" t="n">
         <v>0</v>
@@ -2121,7 +2121,7 @@
         <v>0.83</v>
       </c>
       <c r="AT8" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU8" t="n">
         <v>0</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT9" t="n">
         <v>1.5</v>
@@ -2524,10 +2524,10 @@
         <v>1</v>
       </c>
       <c r="AS10" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT10" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU10" t="n">
         <v>1.91</v>
@@ -3133,10 +3133,10 @@
         <v>1</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT13" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU13" t="n">
         <v>0.24</v>
@@ -3336,10 +3336,10 @@
         <v>0.5</v>
       </c>
       <c r="AS14" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT14" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU14" t="n">
         <v>1.05</v>
@@ -3539,10 +3539,10 @@
         <v>3</v>
       </c>
       <c r="AS15" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT15" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU15" t="n">
         <v>2.12</v>
@@ -3742,10 +3742,10 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT16" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU16" t="n">
         <v>1.67</v>
@@ -3945,10 +3945,10 @@
         <v>1</v>
       </c>
       <c r="AS17" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU17" t="n">
         <v>1.14</v>
@@ -4148,10 +4148,10 @@
         <v>0</v>
       </c>
       <c r="AS18" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT18" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU18" t="n">
         <v>1.16</v>
@@ -5163,10 +5163,10 @@
         <v>1</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT23" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU23" t="n">
         <v>2.24</v>
@@ -5369,7 +5369,7 @@
         <v>1.83</v>
       </c>
       <c r="AT24" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU24" t="n">
         <v>0.91</v>
@@ -5569,10 +5569,10 @@
         <v>2</v>
       </c>
       <c r="AS25" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT25" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU25" t="n">
         <v>1.28</v>
@@ -5772,10 +5772,10 @@
         <v>0.5</v>
       </c>
       <c r="AS26" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT26" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU26" t="n">
         <v>0.24</v>
@@ -5975,10 +5975,10 @@
         <v>0</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT27" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU27" t="n">
         <v>1.67</v>
@@ -6178,7 +6178,7 @@
         <v>1.5</v>
       </c>
       <c r="AS28" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT28" t="n">
         <v>0.92</v>
@@ -6384,7 +6384,7 @@
         <v>1.75</v>
       </c>
       <c r="AT29" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU29" t="n">
         <v>1.99</v>
@@ -7396,7 +7396,7 @@
         <v>0</v>
       </c>
       <c r="AS34" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT34" t="n">
         <v>0.67</v>
@@ -7602,7 +7602,7 @@
         <v>1.83</v>
       </c>
       <c r="AT35" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU35" t="n">
         <v>1.01</v>
@@ -7802,10 +7802,10 @@
         <v>1.67</v>
       </c>
       <c r="AS36" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT36" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU36" t="n">
         <v>1.21</v>
@@ -8008,7 +8008,7 @@
         <v>0.83</v>
       </c>
       <c r="AT37" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU37" t="n">
         <v>1.04</v>
@@ -8208,10 +8208,10 @@
         <v>0</v>
       </c>
       <c r="AS38" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT38" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU38" t="n">
         <v>0.24</v>
@@ -8411,7 +8411,7 @@
         <v>1</v>
       </c>
       <c r="AS39" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT39" t="n">
         <v>0.92</v>
@@ -8614,7 +8614,7 @@
         <v>3</v>
       </c>
       <c r="AS40" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT40" t="n">
         <v>1.92</v>
@@ -9020,7 +9020,7 @@
         <v>0.67</v>
       </c>
       <c r="AS42" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT42" t="n">
         <v>1.5</v>
@@ -9226,7 +9226,7 @@
         <v>1.92</v>
       </c>
       <c r="AT43" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU43" t="n">
         <v>1.42</v>
@@ -9429,7 +9429,7 @@
         <v>1.5</v>
       </c>
       <c r="AT44" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU44" t="n">
         <v>1.66</v>
@@ -9629,7 +9629,7 @@
         <v>3</v>
       </c>
       <c r="AS45" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT45" t="n">
         <v>1.42</v>
@@ -9832,10 +9832,10 @@
         <v>1</v>
       </c>
       <c r="AS46" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT46" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU46" t="n">
         <v>1.96</v>
@@ -10038,7 +10038,7 @@
         <v>1.83</v>
       </c>
       <c r="AT47" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU47" t="n">
         <v>0.97</v>
@@ -10238,7 +10238,7 @@
         <v>2</v>
       </c>
       <c r="AS48" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT48" t="n">
         <v>1.42</v>
@@ -10441,7 +10441,7 @@
         <v>1.5</v>
       </c>
       <c r="AS49" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT49" t="n">
         <v>0.92</v>
@@ -10647,7 +10647,7 @@
         <v>0.83</v>
       </c>
       <c r="AT50" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU50" t="n">
         <v>1.08</v>
@@ -10847,7 +10847,7 @@
         <v>3</v>
       </c>
       <c r="AS51" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT51" t="n">
         <v>1.92</v>
@@ -11053,7 +11053,7 @@
         <v>1.75</v>
       </c>
       <c r="AT52" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU52" t="n">
         <v>1.67</v>
@@ -11256,7 +11256,7 @@
         <v>1.92</v>
       </c>
       <c r="AT53" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU53" t="n">
         <v>1.22</v>
@@ -11456,7 +11456,7 @@
         <v>0.75</v>
       </c>
       <c r="AS54" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT54" t="n">
         <v>1.5</v>
@@ -11659,10 +11659,10 @@
         <v>0.75</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT55" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU55" t="n">
         <v>1.74</v>
@@ -11862,10 +11862,10 @@
         <v>0.2</v>
       </c>
       <c r="AS56" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT56" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU56" t="n">
         <v>1.11</v>
@@ -12068,7 +12068,7 @@
         <v>1.58</v>
       </c>
       <c r="AT57" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU57" t="n">
         <v>1</v>
@@ -12268,7 +12268,7 @@
         <v>0.25</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT58" t="n">
         <v>1.08</v>
@@ -12674,7 +12674,7 @@
         <v>1.5</v>
       </c>
       <c r="AS60" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT60" t="n">
         <v>1.42</v>
@@ -12880,7 +12880,7 @@
         <v>1.5</v>
       </c>
       <c r="AT61" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU61" t="n">
         <v>1.53</v>
@@ -13286,7 +13286,7 @@
         <v>0.83</v>
       </c>
       <c r="AT63" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU63" t="n">
         <v>1.11</v>
@@ -13486,7 +13486,7 @@
         <v>1.33</v>
       </c>
       <c r="AS64" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT64" t="n">
         <v>0.67</v>
@@ -14301,7 +14301,7 @@
         <v>1.92</v>
       </c>
       <c r="AT68" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU68" t="n">
         <v>1.26</v>
@@ -14907,7 +14907,7 @@
         <v>1.4</v>
       </c>
       <c r="AS71" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT71" t="n">
         <v>1.42</v>
@@ -15313,10 +15313,10 @@
         <v>0.17</v>
       </c>
       <c r="AS73" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT73" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU73" t="n">
         <v>1.11</v>
@@ -15516,7 +15516,7 @@
         <v>0.2</v>
       </c>
       <c r="AS74" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT74" t="n">
         <v>1.08</v>
@@ -15722,7 +15722,7 @@
         <v>1.58</v>
       </c>
       <c r="AT75" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU75" t="n">
         <v>0.82</v>
@@ -15922,10 +15922,10 @@
         <v>1.5</v>
       </c>
       <c r="AS76" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT76" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU76" t="n">
         <v>1.87</v>
@@ -16125,10 +16125,10 @@
         <v>1.5</v>
       </c>
       <c r="AS77" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT77" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU77" t="n">
         <v>1.66</v>
@@ -17546,10 +17546,10 @@
         <v>1.29</v>
       </c>
       <c r="AS84" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT84" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU84" t="n">
         <v>1.74</v>
@@ -17749,10 +17749,10 @@
         <v>1.43</v>
       </c>
       <c r="AS85" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT85" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU85" t="n">
         <v>1.08</v>
@@ -17952,10 +17952,10 @@
         <v>0.33</v>
       </c>
       <c r="AS86" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT86" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU86" t="n">
         <v>0.59</v>
@@ -18155,10 +18155,10 @@
         <v>1.29</v>
       </c>
       <c r="AS87" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT87" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU87" t="n">
         <v>1.7</v>
@@ -18358,10 +18358,10 @@
         <v>0.57</v>
       </c>
       <c r="AS88" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT88" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU88" t="n">
         <v>1.78</v>
@@ -18561,10 +18561,10 @@
         <v>1</v>
       </c>
       <c r="AS89" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT89" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU89" t="n">
         <v>1.15</v>
@@ -19576,7 +19576,7 @@
         <v>1.67</v>
       </c>
       <c r="AS94" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT94" t="n">
         <v>1.92</v>
@@ -19782,7 +19782,7 @@
         <v>0.83</v>
       </c>
       <c r="AT95" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU95" t="n">
         <v>1.25</v>
@@ -20185,10 +20185,10 @@
         <v>1.13</v>
       </c>
       <c r="AS97" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT97" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU97" t="n">
         <v>1.59</v>
@@ -20388,10 +20388,10 @@
         <v>1.5</v>
       </c>
       <c r="AS98" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT98" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU98" t="n">
         <v>0.75</v>
@@ -20591,10 +20591,10 @@
         <v>0.86</v>
       </c>
       <c r="AS99" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT99" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU99" t="n">
         <v>1.65</v>
@@ -20797,7 +20797,7 @@
         <v>1.83</v>
       </c>
       <c r="AT100" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU100" t="n">
         <v>1.14</v>
@@ -20997,7 +20997,7 @@
         <v>1.13</v>
       </c>
       <c r="AS101" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT101" t="n">
         <v>0.92</v>
@@ -21200,10 +21200,10 @@
         <v>0.5</v>
       </c>
       <c r="AS102" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT102" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU102" t="n">
         <v>1.17</v>
@@ -21609,7 +21609,7 @@
         <v>1.75</v>
       </c>
       <c r="AT104" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU104" t="n">
         <v>1.67</v>
@@ -22012,7 +22012,7 @@
         <v>1.56</v>
       </c>
       <c r="AS106" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT106" t="n">
         <v>1.42</v>
@@ -22421,7 +22421,7 @@
         <v>1.5</v>
       </c>
       <c r="AT108" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU108" t="n">
         <v>1.59</v>
@@ -22621,7 +22621,7 @@
         <v>0.57</v>
       </c>
       <c r="AS109" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT109" t="n">
         <v>0.67</v>
@@ -22827,7 +22827,7 @@
         <v>1.83</v>
       </c>
       <c r="AT110" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU110" t="n">
         <v>1.15</v>
@@ -23027,7 +23027,7 @@
         <v>1</v>
       </c>
       <c r="AS111" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT111" t="n">
         <v>0.92</v>
@@ -23230,7 +23230,7 @@
         <v>2.11</v>
       </c>
       <c r="AS112" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT112" t="n">
         <v>1.92</v>
@@ -23433,10 +23433,10 @@
         <v>1.11</v>
       </c>
       <c r="AS113" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT113" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU113" t="n">
         <v>0.75</v>
@@ -23639,7 +23639,7 @@
         <v>1.75</v>
       </c>
       <c r="AT114" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU114" t="n">
         <v>1.57</v>
@@ -24042,7 +24042,7 @@
         <v>0.78</v>
       </c>
       <c r="AS116" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT116" t="n">
         <v>0.67</v>
@@ -24248,7 +24248,7 @@
         <v>1.58</v>
       </c>
       <c r="AT117" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU117" t="n">
         <v>1.05</v>
@@ -24448,7 +24448,7 @@
         <v>1.22</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT118" t="n">
         <v>1.5</v>
@@ -24654,7 +24654,7 @@
         <v>1.92</v>
       </c>
       <c r="AT119" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU119" t="n">
         <v>1.34</v>
@@ -24857,7 +24857,7 @@
         <v>1.5</v>
       </c>
       <c r="AT120" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU120" t="n">
         <v>1.72</v>
@@ -25057,7 +25057,7 @@
         <v>0.67</v>
       </c>
       <c r="AS121" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT121" t="n">
         <v>1.08</v>
@@ -25466,7 +25466,7 @@
         <v>1.5</v>
       </c>
       <c r="AT123" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU123" t="n">
         <v>1.69</v>
@@ -25669,7 +25669,7 @@
         <v>1.75</v>
       </c>
       <c r="AT124" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU124" t="n">
         <v>1.46</v>
@@ -26072,7 +26072,7 @@
         <v>0.7</v>
       </c>
       <c r="AS126" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT126" t="n">
         <v>0.67</v>
@@ -26275,7 +26275,7 @@
         <v>2</v>
       </c>
       <c r="AS127" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT127" t="n">
         <v>1.92</v>
@@ -26478,10 +26478,10 @@
         <v>0.6</v>
       </c>
       <c r="AS128" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT128" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU128" t="n">
         <v>1.69</v>
@@ -26681,7 +26681,7 @@
         <v>1.2</v>
       </c>
       <c r="AS129" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT129" t="n">
         <v>1.5</v>
@@ -26887,7 +26887,7 @@
         <v>1.58</v>
       </c>
       <c r="AT130" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU130" t="n">
         <v>1.12</v>
@@ -27090,7 +27090,7 @@
         <v>1.92</v>
       </c>
       <c r="AT131" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU131" t="n">
         <v>1.34</v>
@@ -27290,10 +27290,10 @@
         <v>1.2</v>
       </c>
       <c r="AS132" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT132" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU132" t="n">
         <v>1.17</v>
@@ -27493,7 +27493,7 @@
         <v>0.9</v>
       </c>
       <c r="AS133" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT133" t="n">
         <v>1.08</v>
@@ -27696,7 +27696,7 @@
         <v>0.91</v>
       </c>
       <c r="AS134" t="n">
-        <v>1.33</v>
+        <v>1.31</v>
       </c>
       <c r="AT134" t="n">
         <v>1.08</v>
@@ -27902,7 +27902,7 @@
         <v>1.58</v>
       </c>
       <c r="AT135" t="n">
-        <v>0.33</v>
+        <v>0.38</v>
       </c>
       <c r="AU135" t="n">
         <v>1.17</v>
@@ -28102,10 +28102,10 @@
         <v>1.09</v>
       </c>
       <c r="AS136" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="AT136" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AU136" t="n">
         <v>1.17</v>
@@ -28305,10 +28305,10 @@
         <v>0.82</v>
       </c>
       <c r="AS137" t="n">
-        <v>2</v>
+        <v>1.85</v>
       </c>
       <c r="AT137" t="n">
-        <v>0.75</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU137" t="n">
         <v>1.11</v>
@@ -28508,10 +28508,10 @@
         <v>0.64</v>
       </c>
       <c r="AS138" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT138" t="n">
-        <v>0.58</v>
+        <v>0.77</v>
       </c>
       <c r="AU138" t="n">
         <v>1.68</v>
@@ -28711,10 +28711,10 @@
         <v>1.09</v>
       </c>
       <c r="AS139" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="AT139" t="n">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AU139" t="n">
         <v>1.72</v>
@@ -29117,7 +29117,7 @@
         <v>1.36</v>
       </c>
       <c r="AS141" t="n">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AT141" t="n">
         <v>1.5</v>
@@ -29526,7 +29526,7 @@
         <v>0.83</v>
       </c>
       <c r="AT143" t="n">
-        <v>1.33</v>
+        <v>1.46</v>
       </c>
       <c r="AU143" t="n">
         <v>1.16</v>
@@ -29984,6 +29984,1224 @@
       </c>
       <c r="BK145" t="n">
         <v>5</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="n">
+        <v>3175830</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45017.33333333334</v>
+      </c>
+      <c r="F146" t="n">
+        <v>25</v>
+      </c>
+      <c r="G146" t="inlineStr">
+        <is>
+          <t>Várda SE</t>
+        </is>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Puskás</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>1</v>
+      </c>
+      <c r="J146" t="n">
+        <v>0</v>
+      </c>
+      <c r="K146" t="n">
+        <v>1</v>
+      </c>
+      <c r="L146" t="n">
+        <v>2</v>
+      </c>
+      <c r="M146" t="n">
+        <v>2</v>
+      </c>
+      <c r="N146" t="n">
+        <v>4</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>['31', '61']</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>['78', '86']</t>
+        </is>
+      </c>
+      <c r="Q146" t="n">
+        <v>4</v>
+      </c>
+      <c r="R146" t="n">
+        <v>8</v>
+      </c>
+      <c r="S146" t="n">
+        <v>12</v>
+      </c>
+      <c r="T146" t="n">
+        <v>0</v>
+      </c>
+      <c r="U146" t="n">
+        <v>0</v>
+      </c>
+      <c r="V146" t="n">
+        <v>0</v>
+      </c>
+      <c r="W146" t="n">
+        <v>0</v>
+      </c>
+      <c r="X146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ146" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR146" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS146" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AT146" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU146" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV146" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW146" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY146" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE146" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF146" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG146" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH146" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI146" t="n">
+        <v>12</v>
+      </c>
+      <c r="BJ146" t="n">
+        <v>8</v>
+      </c>
+      <c r="BK146" t="n">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="n">
+        <v>3175832</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45017.41666666666</v>
+      </c>
+      <c r="F147" t="n">
+        <v>25</v>
+      </c>
+      <c r="G147" t="inlineStr">
+        <is>
+          <t>Újpest</t>
+        </is>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Zalaegerszegi TE</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>1</v>
+      </c>
+      <c r="J147" t="n">
+        <v>0</v>
+      </c>
+      <c r="K147" t="n">
+        <v>1</v>
+      </c>
+      <c r="L147" t="n">
+        <v>3</v>
+      </c>
+      <c r="M147" t="n">
+        <v>2</v>
+      </c>
+      <c r="N147" t="n">
+        <v>5</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>['29', '47', '75']</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>['62', '66']</t>
+        </is>
+      </c>
+      <c r="Q147" t="n">
+        <v>1</v>
+      </c>
+      <c r="R147" t="n">
+        <v>4</v>
+      </c>
+      <c r="S147" t="n">
+        <v>5</v>
+      </c>
+      <c r="T147" t="n">
+        <v>0</v>
+      </c>
+      <c r="U147" t="n">
+        <v>0</v>
+      </c>
+      <c r="V147" t="n">
+        <v>0</v>
+      </c>
+      <c r="W147" t="n">
+        <v>0</v>
+      </c>
+      <c r="X147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y147" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC147" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AD147" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AE147" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ147" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK147" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ147" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR147" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS147" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT147" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AU147" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AV147" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AW147" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AX147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY147" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF147" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG147" t="n">
+        <v>7</v>
+      </c>
+      <c r="BH147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ147" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK147" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="n">
+        <v>3175847</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45017.60416666666</v>
+      </c>
+      <c r="F148" t="n">
+        <v>25</v>
+      </c>
+      <c r="G148" t="inlineStr">
+        <is>
+          <t>Honvéd</t>
+        </is>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Paksi SE</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>0</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1</v>
+      </c>
+      <c r="K148" t="n">
+        <v>1</v>
+      </c>
+      <c r="L148" t="n">
+        <v>1</v>
+      </c>
+      <c r="M148" t="n">
+        <v>2</v>
+      </c>
+      <c r="N148" t="n">
+        <v>3</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>['49']</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>['17', '85']</t>
+        </is>
+      </c>
+      <c r="Q148" t="n">
+        <v>3</v>
+      </c>
+      <c r="R148" t="n">
+        <v>2</v>
+      </c>
+      <c r="S148" t="n">
+        <v>5</v>
+      </c>
+      <c r="T148" t="n">
+        <v>0</v>
+      </c>
+      <c r="U148" t="n">
+        <v>0</v>
+      </c>
+      <c r="V148" t="n">
+        <v>0</v>
+      </c>
+      <c r="W148" t="n">
+        <v>0</v>
+      </c>
+      <c r="X148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y148" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC148" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AD148" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AE148" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AF148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ148" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AK148" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AL148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ148" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR148" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AT148" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AU148" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AV148" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AW148" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="AX148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY148" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE148" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF148" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG148" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH148" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ148" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK148" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="n">
+        <v>3175829</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45018.38541666666</v>
+      </c>
+      <c r="F149" t="n">
+        <v>25</v>
+      </c>
+      <c r="G149" t="inlineStr">
+        <is>
+          <t>Kecskeméti TE</t>
+        </is>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Mezőkövesd-Zsóry</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>0</v>
+      </c>
+      <c r="J149" t="n">
+        <v>0</v>
+      </c>
+      <c r="K149" t="n">
+        <v>0</v>
+      </c>
+      <c r="L149" t="n">
+        <v>0</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>1</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="Q149" t="n">
+        <v>12</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1</v>
+      </c>
+      <c r="S149" t="n">
+        <v>13</v>
+      </c>
+      <c r="T149" t="n">
+        <v>0</v>
+      </c>
+      <c r="U149" t="n">
+        <v>0</v>
+      </c>
+      <c r="V149" t="n">
+        <v>0</v>
+      </c>
+      <c r="W149" t="n">
+        <v>0</v>
+      </c>
+      <c r="X149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y149" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC149" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AD149" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="AE149" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AF149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ149" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AK149" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AL149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ149" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR149" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="AS149" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT149" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AU149" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV149" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AW149" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AX149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY149" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE149" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF149" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG149" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH149" t="n">
+        <v>13</v>
+      </c>
+      <c r="BI149" t="n">
+        <v>1</v>
+      </c>
+      <c r="BJ149" t="n">
+        <v>20</v>
+      </c>
+      <c r="BK149" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="n">
+        <v>3175841</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45018.47916666666</v>
+      </c>
+      <c r="F150" t="n">
+        <v>25</v>
+      </c>
+      <c r="G150" t="inlineStr">
+        <is>
+          <t>Ferencváros</t>
+        </is>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Videoton</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>0</v>
+      </c>
+      <c r="J150" t="n">
+        <v>1</v>
+      </c>
+      <c r="K150" t="n">
+        <v>1</v>
+      </c>
+      <c r="L150" t="n">
+        <v>2</v>
+      </c>
+      <c r="M150" t="n">
+        <v>2</v>
+      </c>
+      <c r="N150" t="n">
+        <v>4</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>['59', '70']</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>['7', '79']</t>
+        </is>
+      </c>
+      <c r="Q150" t="n">
+        <v>7</v>
+      </c>
+      <c r="R150" t="n">
+        <v>1</v>
+      </c>
+      <c r="S150" t="n">
+        <v>8</v>
+      </c>
+      <c r="T150" t="n">
+        <v>0</v>
+      </c>
+      <c r="U150" t="n">
+        <v>0</v>
+      </c>
+      <c r="V150" t="n">
+        <v>0</v>
+      </c>
+      <c r="W150" t="n">
+        <v>0</v>
+      </c>
+      <c r="X150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y150" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC150" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AD150" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="AE150" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AF150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ150" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR150" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AS150" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AT150" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="AU150" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AV150" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AW150" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AX150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY150" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF150" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG150" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH150" t="n">
+        <v>15</v>
+      </c>
+      <c r="BI150" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ150" t="n">
+        <v>19</v>
+      </c>
+      <c r="BK150" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="n">
+        <v>3175828</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45018.58333333334</v>
+      </c>
+      <c r="F151" t="n">
+        <v>25</v>
+      </c>
+      <c r="G151" t="inlineStr">
+        <is>
+          <t>Debrecen</t>
+        </is>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>2</v>
+      </c>
+      <c r="J151" t="n">
+        <v>0</v>
+      </c>
+      <c r="K151" t="n">
+        <v>2</v>
+      </c>
+      <c r="L151" t="n">
+        <v>3</v>
+      </c>
+      <c r="M151" t="n">
+        <v>1</v>
+      </c>
+      <c r="N151" t="n">
+        <v>4</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>['34', '44', '49']</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>['73']</t>
+        </is>
+      </c>
+      <c r="Q151" t="n">
+        <v>8</v>
+      </c>
+      <c r="R151" t="n">
+        <v>5</v>
+      </c>
+      <c r="S151" t="n">
+        <v>13</v>
+      </c>
+      <c r="T151" t="n">
+        <v>0</v>
+      </c>
+      <c r="U151" t="n">
+        <v>0</v>
+      </c>
+      <c r="V151" t="n">
+        <v>0</v>
+      </c>
+      <c r="W151" t="n">
+        <v>0</v>
+      </c>
+      <c r="X151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y151" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AE151" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AF151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ151" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR151" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AS151" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT151" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU151" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="AV151" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AW151" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AX151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY151" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE151" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF151" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH151" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI151" t="n">
+        <v>9</v>
+      </c>
+      <c r="BJ151" t="n">
+        <v>11</v>
+      </c>
+      <c r="BK151" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Hungary NB I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Hungary NB I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK151"/>
+  <dimension ref="A1:BK155"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1512,7 +1512,7 @@
         <v>1.31</v>
       </c>
       <c r="AT5" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU5" t="n">
         <v>0</v>
@@ -1712,7 +1712,7 @@
         <v>0</v>
       </c>
       <c r="AS6" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT6" t="n">
         <v>0.38</v>
@@ -2324,7 +2324,7 @@
         <v>1.85</v>
       </c>
       <c r="AT9" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU9" t="n">
         <v>0</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT11" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -2930,7 +2930,7 @@
         <v>0</v>
       </c>
       <c r="AS12" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT12" t="n">
         <v>0.92</v>
@@ -4351,10 +4351,10 @@
         <v>1</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU19" t="n">
         <v>1.24</v>
@@ -4960,10 +4960,10 @@
         <v>1</v>
       </c>
       <c r="AS22" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT22" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
@@ -5366,7 +5366,7 @@
         <v>1</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT24" t="n">
         <v>0.6899999999999999</v>
@@ -6381,7 +6381,7 @@
         <v>0.33</v>
       </c>
       <c r="AS29" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT29" t="n">
         <v>0.77</v>
@@ -6587,7 +6587,7 @@
         <v>1.5</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU30" t="n">
         <v>1.71</v>
@@ -6787,7 +6787,7 @@
         <v>3</v>
       </c>
       <c r="AS31" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT31" t="n">
         <v>1.42</v>
@@ -6990,10 +6990,10 @@
         <v>1</v>
       </c>
       <c r="AS32" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT32" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU32" t="n">
         <v>1.04</v>
@@ -7196,7 +7196,7 @@
         <v>0.83</v>
       </c>
       <c r="AT33" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU33" t="n">
         <v>1.11</v>
@@ -7399,7 +7399,7 @@
         <v>1.08</v>
       </c>
       <c r="AT34" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU34" t="n">
         <v>1.15</v>
@@ -7599,7 +7599,7 @@
         <v>1.33</v>
       </c>
       <c r="AS35" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT35" t="n">
         <v>0.92</v>
@@ -8617,7 +8617,7 @@
         <v>1.69</v>
       </c>
       <c r="AT40" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU40" t="n">
         <v>1.96</v>
@@ -8817,10 +8817,10 @@
         <v>0.33</v>
       </c>
       <c r="AS41" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT41" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU41" t="n">
         <v>0</v>
@@ -9023,7 +9023,7 @@
         <v>1.08</v>
       </c>
       <c r="AT42" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU42" t="n">
         <v>1.06</v>
@@ -9223,7 +9223,7 @@
         <v>0.25</v>
       </c>
       <c r="AS43" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT43" t="n">
         <v>0.77</v>
@@ -10035,7 +10035,7 @@
         <v>1.25</v>
       </c>
       <c r="AS47" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT47" t="n">
         <v>1.46</v>
@@ -10850,7 +10850,7 @@
         <v>1.85</v>
       </c>
       <c r="AT51" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU51" t="n">
         <v>1.15</v>
@@ -11050,7 +11050,7 @@
         <v>0</v>
       </c>
       <c r="AS52" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT52" t="n">
         <v>0.38</v>
@@ -11253,7 +11253,7 @@
         <v>1.6</v>
       </c>
       <c r="AS53" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT53" t="n">
         <v>0.92</v>
@@ -11459,7 +11459,7 @@
         <v>1.69</v>
       </c>
       <c r="AT54" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU54" t="n">
         <v>1.75</v>
@@ -12065,7 +12065,7 @@
         <v>1.2</v>
       </c>
       <c r="AS57" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT57" t="n">
         <v>1.23</v>
@@ -12271,7 +12271,7 @@
         <v>2.15</v>
       </c>
       <c r="AT58" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU58" t="n">
         <v>1.47</v>
@@ -12471,10 +12471,10 @@
         <v>0.5</v>
       </c>
       <c r="AS59" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT59" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU59" t="n">
         <v>1.26</v>
@@ -13080,7 +13080,7 @@
         <v>1.2</v>
       </c>
       <c r="AS62" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT62" t="n">
         <v>0.92</v>
@@ -13489,7 +13489,7 @@
         <v>1.85</v>
       </c>
       <c r="AT64" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU64" t="n">
         <v>0.75</v>
@@ -13689,10 +13689,10 @@
         <v>2</v>
       </c>
       <c r="AS65" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT65" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU65" t="n">
         <v>1.05</v>
@@ -13895,7 +13895,7 @@
         <v>0.83</v>
       </c>
       <c r="AT66" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU66" t="n">
         <v>1.11</v>
@@ -14298,7 +14298,7 @@
         <v>1.33</v>
       </c>
       <c r="AS68" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT68" t="n">
         <v>1.46</v>
@@ -14501,10 +14501,10 @@
         <v>1.5</v>
       </c>
       <c r="AS69" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT69" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU69" t="n">
         <v>1.73</v>
@@ -14704,10 +14704,10 @@
         <v>1</v>
       </c>
       <c r="AS70" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT70" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU70" t="n">
         <v>1.18</v>
@@ -15110,7 +15110,7 @@
         <v>1.67</v>
       </c>
       <c r="AS72" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT72" t="n">
         <v>1.42</v>
@@ -15519,7 +15519,7 @@
         <v>1.85</v>
       </c>
       <c r="AT74" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU74" t="n">
         <v>1.11</v>
@@ -15719,7 +15719,7 @@
         <v>0.6</v>
       </c>
       <c r="AS75" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT75" t="n">
         <v>0.6899999999999999</v>
@@ -16328,10 +16328,10 @@
         <v>1.5</v>
       </c>
       <c r="AS78" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT78" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU78" t="n">
         <v>1.19</v>
@@ -16531,7 +16531,7 @@
         <v>1.57</v>
       </c>
       <c r="AS79" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT79" t="n">
         <v>1.42</v>
@@ -16737,7 +16737,7 @@
         <v>1.5</v>
       </c>
       <c r="AT80" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU80" t="n">
         <v>1.63</v>
@@ -16940,7 +16940,7 @@
         <v>0.83</v>
       </c>
       <c r="AT81" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU81" t="n">
         <v>1.15</v>
@@ -17140,7 +17140,7 @@
         <v>1.29</v>
       </c>
       <c r="AS82" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT82" t="n">
         <v>0.92</v>
@@ -17343,10 +17343,10 @@
         <v>1.8</v>
       </c>
       <c r="AS83" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT83" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU83" t="n">
         <v>1.26</v>
@@ -18764,10 +18764,10 @@
         <v>0.71</v>
       </c>
       <c r="AS90" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT90" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU90" t="n">
         <v>1.68</v>
@@ -18967,10 +18967,10 @@
         <v>0.67</v>
       </c>
       <c r="AS91" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT91" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU91" t="n">
         <v>1.1</v>
@@ -19173,7 +19173,7 @@
         <v>1.5</v>
       </c>
       <c r="AT92" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU92" t="n">
         <v>1.55</v>
@@ -19373,7 +19373,7 @@
         <v>1.75</v>
       </c>
       <c r="AS93" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT93" t="n">
         <v>1.42</v>
@@ -19579,7 +19579,7 @@
         <v>1.08</v>
       </c>
       <c r="AT94" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU94" t="n">
         <v>1.24</v>
@@ -19985,7 +19985,7 @@
         <v>1.5</v>
       </c>
       <c r="AT96" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU96" t="n">
         <v>1.67</v>
@@ -20794,7 +20794,7 @@
         <v>1.38</v>
       </c>
       <c r="AS100" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT100" t="n">
         <v>1.23</v>
@@ -21403,10 +21403,10 @@
         <v>2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT103" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU103" t="n">
         <v>1.09</v>
@@ -21606,7 +21606,7 @@
         <v>0.88</v>
       </c>
       <c r="AS104" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT104" t="n">
         <v>0.6899999999999999</v>
@@ -21809,10 +21809,10 @@
         <v>1.25</v>
       </c>
       <c r="AS105" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT105" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU105" t="n">
         <v>0.98</v>
@@ -22215,10 +22215,10 @@
         <v>0.63</v>
       </c>
       <c r="AS107" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT107" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU107" t="n">
         <v>1.36</v>
@@ -22624,7 +22624,7 @@
         <v>2.15</v>
       </c>
       <c r="AT109" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU109" t="n">
         <v>1.6</v>
@@ -22824,7 +22824,7 @@
         <v>0.44</v>
       </c>
       <c r="AS110" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT110" t="n">
         <v>0.38</v>
@@ -23233,7 +23233,7 @@
         <v>1.31</v>
       </c>
       <c r="AT112" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU112" t="n">
         <v>1.59</v>
@@ -23636,7 +23636,7 @@
         <v>1.33</v>
       </c>
       <c r="AS114" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT114" t="n">
         <v>0.92</v>
@@ -23842,7 +23842,7 @@
         <v>0.83</v>
       </c>
       <c r="AT115" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU115" t="n">
         <v>1.22</v>
@@ -24045,7 +24045,7 @@
         <v>1.31</v>
       </c>
       <c r="AT116" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU116" t="n">
         <v>1.39</v>
@@ -24245,7 +24245,7 @@
         <v>0.33</v>
       </c>
       <c r="AS117" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT117" t="n">
         <v>0.77</v>
@@ -24451,7 +24451,7 @@
         <v>2.15</v>
       </c>
       <c r="AT118" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU118" t="n">
         <v>1.6</v>
@@ -24651,7 +24651,7 @@
         <v>1.22</v>
       </c>
       <c r="AS119" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT119" t="n">
         <v>1.23</v>
@@ -25060,7 +25060,7 @@
         <v>1.08</v>
       </c>
       <c r="AT121" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU121" t="n">
         <v>1.19</v>
@@ -25260,7 +25260,7 @@
         <v>1</v>
       </c>
       <c r="AS122" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT122" t="n">
         <v>0.92</v>
@@ -25666,7 +25666,7 @@
         <v>1</v>
       </c>
       <c r="AS124" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT124" t="n">
         <v>1.46</v>
@@ -26075,7 +26075,7 @@
         <v>1.85</v>
       </c>
       <c r="AT126" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU126" t="n">
         <v>1.07</v>
@@ -26278,7 +26278,7 @@
         <v>1.85</v>
       </c>
       <c r="AT127" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU127" t="n">
         <v>0.75</v>
@@ -26684,7 +26684,7 @@
         <v>1.31</v>
       </c>
       <c r="AT129" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU129" t="n">
         <v>1.26</v>
@@ -26884,7 +26884,7 @@
         <v>1.2</v>
       </c>
       <c r="AS130" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT130" t="n">
         <v>0.92</v>
@@ -27087,7 +27087,7 @@
         <v>0.9</v>
       </c>
       <c r="AS131" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT131" t="n">
         <v>0.6899999999999999</v>
@@ -27496,7 +27496,7 @@
         <v>1.69</v>
       </c>
       <c r="AT133" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU133" t="n">
         <v>1.71</v>
@@ -27699,7 +27699,7 @@
         <v>1.31</v>
       </c>
       <c r="AT134" t="n">
-        <v>1.08</v>
+        <v>1.23</v>
       </c>
       <c r="AU134" t="n">
         <v>1.23</v>
@@ -27899,7 +27899,7 @@
         <v>0.36</v>
       </c>
       <c r="AS135" t="n">
-        <v>1.58</v>
+        <v>1.69</v>
       </c>
       <c r="AT135" t="n">
         <v>0.38</v>
@@ -28914,7 +28914,7 @@
         <v>1.45</v>
       </c>
       <c r="AS140" t="n">
-        <v>1.83</v>
+        <v>1.69</v>
       </c>
       <c r="AT140" t="n">
         <v>1.42</v>
@@ -29120,7 +29120,7 @@
         <v>1.85</v>
       </c>
       <c r="AT141" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AU141" t="n">
         <v>0.72</v>
@@ -29320,7 +29320,7 @@
         <v>1</v>
       </c>
       <c r="AS142" t="n">
-        <v>1.92</v>
+        <v>1.85</v>
       </c>
       <c r="AT142" t="n">
         <v>0.92</v>
@@ -29726,10 +29726,10 @@
         <v>0.73</v>
       </c>
       <c r="AS144" t="n">
-        <v>1.75</v>
+        <v>1.62</v>
       </c>
       <c r="AT144" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AU144" t="n">
         <v>1.39</v>
@@ -29932,7 +29932,7 @@
         <v>1.5</v>
       </c>
       <c r="AT145" t="n">
-        <v>1.92</v>
+        <v>1.77</v>
       </c>
       <c r="AU145" t="n">
         <v>1.73</v>
@@ -31202,6 +31202,818 @@
       </c>
       <c r="BK151" t="n">
         <v>13</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="n">
+        <v>3175852</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45023.625</v>
+      </c>
+      <c r="F152" t="n">
+        <v>26</v>
+      </c>
+      <c r="G152" t="inlineStr">
+        <is>
+          <t>Mezőkövesd-Zsóry</t>
+        </is>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Debrecen</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>0</v>
+      </c>
+      <c r="J152" t="n">
+        <v>0</v>
+      </c>
+      <c r="K152" t="n">
+        <v>0</v>
+      </c>
+      <c r="L152" t="n">
+        <v>0</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1</v>
+      </c>
+      <c r="N152" t="n">
+        <v>1</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="Q152" t="n">
+        <v>4</v>
+      </c>
+      <c r="R152" t="n">
+        <v>6</v>
+      </c>
+      <c r="S152" t="n">
+        <v>10</v>
+      </c>
+      <c r="T152" t="n">
+        <v>0</v>
+      </c>
+      <c r="U152" t="n">
+        <v>0</v>
+      </c>
+      <c r="V152" t="n">
+        <v>0</v>
+      </c>
+      <c r="W152" t="n">
+        <v>0</v>
+      </c>
+      <c r="X152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y152" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC152" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AD152" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AE152" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AF152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AK152" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AL152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AR152" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AS152" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT152" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AU152" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AV152" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AW152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AX152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY152" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE152" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF152" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH152" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI152" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ152" t="n">
+        <v>6</v>
+      </c>
+      <c r="BK152" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="n">
+        <v>3175859</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45024.39583333334</v>
+      </c>
+      <c r="F153" t="n">
+        <v>26</v>
+      </c>
+      <c r="G153" t="inlineStr">
+        <is>
+          <t>Puskás</t>
+        </is>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Kecskeméti TE</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>0</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1</v>
+      </c>
+      <c r="K153" t="n">
+        <v>1</v>
+      </c>
+      <c r="L153" t="n">
+        <v>0</v>
+      </c>
+      <c r="M153" t="n">
+        <v>3</v>
+      </c>
+      <c r="N153" t="n">
+        <v>3</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>['6', '50', '55']</t>
+        </is>
+      </c>
+      <c r="Q153" t="n">
+        <v>5</v>
+      </c>
+      <c r="R153" t="n">
+        <v>3</v>
+      </c>
+      <c r="S153" t="n">
+        <v>8</v>
+      </c>
+      <c r="T153" t="n">
+        <v>0</v>
+      </c>
+      <c r="U153" t="n">
+        <v>0</v>
+      </c>
+      <c r="V153" t="n">
+        <v>0</v>
+      </c>
+      <c r="W153" t="n">
+        <v>0</v>
+      </c>
+      <c r="X153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y153" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC153" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AD153" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE153" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AF153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ153" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK153" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AL153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ153" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR153" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AT153" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AU153" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AV153" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AW153" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AX153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY153" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF153" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BI153" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ153" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK153" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="n">
+        <v>3175857</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45024.5</v>
+      </c>
+      <c r="F154" t="n">
+        <v>26</v>
+      </c>
+      <c r="G154" t="inlineStr">
+        <is>
+          <t>Videoton</t>
+        </is>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Újpest</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>0</v>
+      </c>
+      <c r="J154" t="n">
+        <v>0</v>
+      </c>
+      <c r="K154" t="n">
+        <v>0</v>
+      </c>
+      <c r="L154" t="n">
+        <v>0</v>
+      </c>
+      <c r="M154" t="n">
+        <v>0</v>
+      </c>
+      <c r="N154" t="n">
+        <v>0</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q154" t="n">
+        <v>4</v>
+      </c>
+      <c r="R154" t="n">
+        <v>3</v>
+      </c>
+      <c r="S154" t="n">
+        <v>7</v>
+      </c>
+      <c r="T154" t="n">
+        <v>0</v>
+      </c>
+      <c r="U154" t="n">
+        <v>0</v>
+      </c>
+      <c r="V154" t="n">
+        <v>0</v>
+      </c>
+      <c r="W154" t="n">
+        <v>0</v>
+      </c>
+      <c r="X154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y154" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AD154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AK154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AL154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ154" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR154" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AS154" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT154" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="AU154" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AV154" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AW154" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AX154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY154" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF154" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG154" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH154" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI154" t="n">
+        <v>11</v>
+      </c>
+      <c r="BJ154" t="n">
+        <v>5</v>
+      </c>
+      <c r="BK154" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B155" t="n">
+        <v>3175856</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E155" s="2" t="n">
+        <v>45024.60416666666</v>
+      </c>
+      <c r="F155" t="n">
+        <v>26</v>
+      </c>
+      <c r="G155" t="inlineStr">
+        <is>
+          <t>Paksi SE</t>
+        </is>
+      </c>
+      <c r="H155" t="inlineStr">
+        <is>
+          <t>Ferencváros</t>
+        </is>
+      </c>
+      <c r="I155" t="n">
+        <v>1</v>
+      </c>
+      <c r="J155" t="n">
+        <v>1</v>
+      </c>
+      <c r="K155" t="n">
+        <v>2</v>
+      </c>
+      <c r="L155" t="n">
+        <v>3</v>
+      </c>
+      <c r="M155" t="n">
+        <v>2</v>
+      </c>
+      <c r="N155" t="n">
+        <v>5</v>
+      </c>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>['36', '55', '70']</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>['23', '56']</t>
+        </is>
+      </c>
+      <c r="Q155" t="n">
+        <v>4</v>
+      </c>
+      <c r="R155" t="n">
+        <v>3</v>
+      </c>
+      <c r="S155" t="n">
+        <v>7</v>
+      </c>
+      <c r="T155" t="n">
+        <v>0</v>
+      </c>
+      <c r="U155" t="n">
+        <v>0</v>
+      </c>
+      <c r="V155" t="n">
+        <v>0</v>
+      </c>
+      <c r="W155" t="n">
+        <v>0</v>
+      </c>
+      <c r="X155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y155" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC155" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="AD155" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AE155" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AF155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ155" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AK155" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="AL155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AR155" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS155" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="AT155" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AU155" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AV155" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW155" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="AX155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY155" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BH155" t="n">
+        <v>0</v>
+      </c>
+      <c r="BI155" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ155" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK155" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2023)/Hungary NB I_20222023.xlsx
+++ b/Bases_de_Dados_(2022-2023)/Hungary NB I_20222023.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK155"/>
+  <dimension ref="A1:BK157"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT8" t="n">
         <v>1.46</v>
@@ -2933,7 +2933,7 @@
         <v>1.85</v>
       </c>
       <c r="AT12" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU12" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="AS20" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT20" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU20" t="n">
         <v>0</v>
@@ -4757,10 +4757,10 @@
         <v>0</v>
       </c>
       <c r="AS21" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT21" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU21" t="n">
         <v>0.8</v>
@@ -6181,7 +6181,7 @@
         <v>2.15</v>
       </c>
       <c r="AT28" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU28" t="n">
         <v>1.33</v>
@@ -6584,7 +6584,7 @@
         <v>0.5</v>
       </c>
       <c r="AS30" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT30" t="n">
         <v>1.23</v>
@@ -6790,7 +6790,7 @@
         <v>1.69</v>
       </c>
       <c r="AT31" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU31" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>0</v>
       </c>
       <c r="AS33" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT33" t="n">
         <v>1.77</v>
@@ -8005,7 +8005,7 @@
         <v>0.67</v>
       </c>
       <c r="AS37" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT37" t="n">
         <v>1.23</v>
@@ -8414,7 +8414,7 @@
         <v>1.31</v>
       </c>
       <c r="AT39" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU39" t="n">
         <v>1.67</v>
@@ -9426,7 +9426,7 @@
         <v>0.75</v>
       </c>
       <c r="AS44" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT44" t="n">
         <v>1.23</v>
@@ -9632,7 +9632,7 @@
         <v>2.15</v>
       </c>
       <c r="AT45" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU45" t="n">
         <v>1.49</v>
@@ -10241,7 +10241,7 @@
         <v>1.69</v>
       </c>
       <c r="AT48" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU48" t="n">
         <v>1.86</v>
@@ -10444,7 +10444,7 @@
         <v>1.85</v>
       </c>
       <c r="AT49" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU49" t="n">
         <v>0.24</v>
@@ -10644,7 +10644,7 @@
         <v>1.75</v>
       </c>
       <c r="AS50" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT50" t="n">
         <v>0.92</v>
@@ -12677,7 +12677,7 @@
         <v>1.85</v>
       </c>
       <c r="AT60" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU60" t="n">
         <v>1.04</v>
@@ -12877,7 +12877,7 @@
         <v>1.6</v>
       </c>
       <c r="AS61" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT61" t="n">
         <v>1.46</v>
@@ -13083,7 +13083,7 @@
         <v>1.62</v>
       </c>
       <c r="AT62" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU62" t="n">
         <v>1.67</v>
@@ -13283,7 +13283,7 @@
         <v>0.2</v>
       </c>
       <c r="AS63" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT63" t="n">
         <v>0.38</v>
@@ -13892,7 +13892,7 @@
         <v>1.2</v>
       </c>
       <c r="AS66" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT66" t="n">
         <v>1.62</v>
@@ -14095,10 +14095,10 @@
         <v>1</v>
       </c>
       <c r="AS67" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT67" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU67" t="n">
         <v>1.42</v>
@@ -14910,7 +14910,7 @@
         <v>1.85</v>
       </c>
       <c r="AT71" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU71" t="n">
         <v>0.59</v>
@@ -15113,7 +15113,7 @@
         <v>1.69</v>
       </c>
       <c r="AT72" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU72" t="n">
         <v>1.19</v>
@@ -16534,7 +16534,7 @@
         <v>1.62</v>
       </c>
       <c r="AT79" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU79" t="n">
         <v>1.68</v>
@@ -16734,7 +16734,7 @@
         <v>0.8</v>
       </c>
       <c r="AS80" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT80" t="n">
         <v>0.6899999999999999</v>
@@ -16937,7 +16937,7 @@
         <v>0.33</v>
       </c>
       <c r="AS81" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT81" t="n">
         <v>1.23</v>
@@ -17143,7 +17143,7 @@
         <v>1.69</v>
       </c>
       <c r="AT82" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU82" t="n">
         <v>1.17</v>
@@ -19170,7 +19170,7 @@
         <v>1.29</v>
       </c>
       <c r="AS92" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT92" t="n">
         <v>1.62</v>
@@ -19376,7 +19376,7 @@
         <v>1.85</v>
       </c>
       <c r="AT93" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU93" t="n">
         <v>1.36</v>
@@ -19779,7 +19779,7 @@
         <v>0.29</v>
       </c>
       <c r="AS95" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT95" t="n">
         <v>0.77</v>
@@ -19982,7 +19982,7 @@
         <v>1.86</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT96" t="n">
         <v>1.77</v>
@@ -21000,7 +21000,7 @@
         <v>1.69</v>
       </c>
       <c r="AT101" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU101" t="n">
         <v>1.78</v>
@@ -22015,7 +22015,7 @@
         <v>1.08</v>
       </c>
       <c r="AT106" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU106" t="n">
         <v>1.23</v>
@@ -22418,7 +22418,7 @@
         <v>0.25</v>
       </c>
       <c r="AS108" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT108" t="n">
         <v>0.77</v>
@@ -23030,7 +23030,7 @@
         <v>1.85</v>
       </c>
       <c r="AT111" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU111" t="n">
         <v>1.13</v>
@@ -23839,7 +23839,7 @@
         <v>0.5</v>
       </c>
       <c r="AS115" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT115" t="n">
         <v>0.6899999999999999</v>
@@ -24854,7 +24854,7 @@
         <v>0.89</v>
       </c>
       <c r="AS120" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT120" t="n">
         <v>0.6899999999999999</v>
@@ -25263,7 +25263,7 @@
         <v>1.69</v>
       </c>
       <c r="AT122" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU122" t="n">
         <v>1.14</v>
@@ -25463,7 +25463,7 @@
         <v>0.4</v>
       </c>
       <c r="AS123" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT123" t="n">
         <v>0.38</v>
@@ -25869,10 +25869,10 @@
         <v>1.5</v>
       </c>
       <c r="AS125" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT125" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU125" t="n">
         <v>1.16</v>
@@ -28917,7 +28917,7 @@
         <v>1.69</v>
       </c>
       <c r="AT140" t="n">
-        <v>1.42</v>
+        <v>1.38</v>
       </c>
       <c r="AU140" t="n">
         <v>1.11</v>
@@ -29323,7 +29323,7 @@
         <v>1.85</v>
       </c>
       <c r="AT142" t="n">
-        <v>0.92</v>
+        <v>1.08</v>
       </c>
       <c r="AU142" t="n">
         <v>1.34</v>
@@ -29523,7 +29523,7 @@
         <v>1.18</v>
       </c>
       <c r="AS143" t="n">
-        <v>0.83</v>
+        <v>0.77</v>
       </c>
       <c r="AT143" t="n">
         <v>1.46</v>
@@ -29929,7 +29929,7 @@
         <v>2.09</v>
       </c>
       <c r="AS145" t="n">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
       <c r="AT145" t="n">
         <v>1.77</v>
@@ -31469,13 +31469,13 @@
         </is>
       </c>
       <c r="Q153" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R153" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S153" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="T153" t="n">
         <v>0</v>
@@ -31878,10 +31878,10 @@
         <v>4</v>
       </c>
       <c r="R155" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="S155" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="T155" t="n">
         <v>0</v>
@@ -32014,6 +32014,412 @@
       </c>
       <c r="BK155" t="n">
         <v>2</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B156" t="n">
+        <v>3175860</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E156" s="2" t="n">
+        <v>45025.38541666666</v>
+      </c>
+      <c r="F156" t="n">
+        <v>26</v>
+      </c>
+      <c r="G156" t="inlineStr">
+        <is>
+          <t>Vasas</t>
+        </is>
+      </c>
+      <c r="H156" t="inlineStr">
+        <is>
+          <t>Honvéd</t>
+        </is>
+      </c>
+      <c r="I156" t="n">
+        <v>0</v>
+      </c>
+      <c r="J156" t="n">
+        <v>0</v>
+      </c>
+      <c r="K156" t="n">
+        <v>0</v>
+      </c>
+      <c r="L156" t="n">
+        <v>0</v>
+      </c>
+      <c r="M156" t="n">
+        <v>1</v>
+      </c>
+      <c r="N156" t="n">
+        <v>1</v>
+      </c>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q156" t="n">
+        <v>6</v>
+      </c>
+      <c r="R156" t="n">
+        <v>6</v>
+      </c>
+      <c r="S156" t="n">
+        <v>12</v>
+      </c>
+      <c r="T156" t="n">
+        <v>0</v>
+      </c>
+      <c r="U156" t="n">
+        <v>0</v>
+      </c>
+      <c r="V156" t="n">
+        <v>0</v>
+      </c>
+      <c r="W156" t="n">
+        <v>0</v>
+      </c>
+      <c r="X156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC156" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>6.59</v>
+      </c>
+      <c r="AE156" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ156" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR156" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AS156" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AT156" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AU156" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AV156" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AW156" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AX156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY156" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF156" t="n">
+        <v>0</v>
+      </c>
+      <c r="BG156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI156" t="n">
+        <v>5</v>
+      </c>
+      <c r="BJ156" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK156" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B157" t="n">
+        <v>3175858</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Hungary NB I</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2022/2023</t>
+        </is>
+      </c>
+      <c r="E157" s="2" t="n">
+        <v>45025.47916666666</v>
+      </c>
+      <c r="F157" t="n">
+        <v>26</v>
+      </c>
+      <c r="G157" t="inlineStr">
+        <is>
+          <t>Zalaegerszegi TE</t>
+        </is>
+      </c>
+      <c r="H157" t="inlineStr">
+        <is>
+          <t>Várda SE</t>
+        </is>
+      </c>
+      <c r="I157" t="n">
+        <v>0</v>
+      </c>
+      <c r="J157" t="n">
+        <v>0</v>
+      </c>
+      <c r="K157" t="n">
+        <v>0</v>
+      </c>
+      <c r="L157" t="n">
+        <v>0</v>
+      </c>
+      <c r="M157" t="n">
+        <v>0</v>
+      </c>
+      <c r="N157" t="n">
+        <v>0</v>
+      </c>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q157" t="n">
+        <v>4</v>
+      </c>
+      <c r="R157" t="n">
+        <v>3</v>
+      </c>
+      <c r="S157" t="n">
+        <v>7</v>
+      </c>
+      <c r="T157" t="n">
+        <v>0</v>
+      </c>
+      <c r="U157" t="n">
+        <v>0</v>
+      </c>
+      <c r="V157" t="n">
+        <v>0</v>
+      </c>
+      <c r="W157" t="n">
+        <v>0</v>
+      </c>
+      <c r="X157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y157" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AC157" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AD157" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE157" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AF157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AG157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AH157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AI157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AJ157" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK157" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AN157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AP157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ157" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR157" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS157" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT157" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AU157" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AV157" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW157" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AX157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY157" t="n">
+        <v>0</v>
+      </c>
+      <c r="AZ157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BD157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE157" t="n">
+        <v>0</v>
+      </c>
+      <c r="BF157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BG157" t="n">
+        <v>5</v>
+      </c>
+      <c r="BH157" t="n">
+        <v>4</v>
+      </c>
+      <c r="BI157" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ157" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK157" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
